--- a/24网络技术3班考勤.xlsx
+++ b/24网络技术3班考勤.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjs\Documents\教学\2025-2026第一学期\教学\网站设计\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="53">
   <si>
     <t>学号</t>
   </si>
@@ -42,6 +37,9 @@
     <t>刘柯纬</t>
   </si>
   <si>
+    <t>×</t>
+  </si>
+  <si>
     <t>张智献</t>
   </si>
   <si>
@@ -58,9 +56,6 @@
   </si>
   <si>
     <t>高顼研</t>
-  </si>
-  <si>
-    <t>×</t>
   </si>
   <si>
     <t>周欣慧</t>
@@ -183,8 +178,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,7 +197,7 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="24"/>
@@ -206,14 +207,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,8 +376,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -295,12 +619,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -312,27 +887,62 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -590,50 +1200,53 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
+    <row r="2" ht="15" spans="1:6">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
       <c r="D2">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="E2">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="F2">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:6">
+      <c r="A3" s="4">
         <v>2452020005</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -646,12 +1259,15 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:6">
+      <c r="A4" s="5">
         <v>2452020012</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4">
@@ -664,17 +1280,20 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:6">
+      <c r="A5" s="4">
         <v>2452020033</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -682,13 +1301,16 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:6">
+      <c r="A6" s="5">
         <v>2452020048</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -700,13 +1322,16 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:6">
+      <c r="A7" s="4">
         <v>2452020059</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C7">
         <v>110</v>
@@ -717,13 +1342,16 @@
       <c r="E7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:6">
+      <c r="A8" s="5">
         <v>2452020062</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -735,13 +1363,16 @@
       <c r="E8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:6">
+      <c r="A9" s="4">
         <v>2452020068</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -753,13 +1384,16 @@
       <c r="E9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:6">
+      <c r="A10" s="5">
         <v>2452020071</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -771,390 +1405,456 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:6">
+      <c r="A11" s="6">
         <v>2452020072</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
+        <v>95.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:6">
+      <c r="A12" s="5">
+        <v>2452020091</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:6">
+      <c r="A13" s="4">
+        <v>2452020094</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:6">
+      <c r="A14" s="5">
+        <v>2452020098</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:6">
+      <c r="A15" s="4">
+        <v>2452020105</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:6">
+      <c r="A16" s="5">
+        <v>2452020117</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:6">
+      <c r="A17" s="4">
+        <v>2452020132</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:6">
+      <c r="A18" s="5">
+        <v>2452020133</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:6">
+      <c r="A19" s="4">
+        <v>2452020143</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:6">
+      <c r="A20" s="5">
+        <v>2452020164</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:6">
+      <c r="A21" s="4">
+        <v>2452020176</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:6">
+      <c r="A22" s="5">
+        <v>2452020203</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:6">
+      <c r="A23" s="4">
+        <v>2452020205</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:6">
+      <c r="A24" s="5">
+        <v>2452020236</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:6">
+      <c r="A25" s="4">
+        <v>2452020243</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>2452020091</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>2452020094</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>2452020098</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>2452020105</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:6">
+      <c r="A26" s="5">
+        <v>2452020253</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
         <f t="shared" si="0"/>
         <v>98.5</v>
       </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>2452020117</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>2452020132</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>2452020133</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>2452020143</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>2452020164</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>2452020176</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>2452020203</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>2452020205</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>2452020236</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>2452020243</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25">
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:6">
+      <c r="A27" s="4">
+        <v>2452020260</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>95.5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:6">
+      <c r="A28" s="5">
+        <v>2452020278</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:6">
+      <c r="A29" s="4">
+        <v>2452020293</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:6">
+      <c r="A30" s="5">
+        <v>2452020297</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:6">
+      <c r="A31" s="4">
+        <v>2452020298</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
         <f t="shared" si="0"/>
         <v>98.5</v>
       </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>2452020253</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>98.5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>2452020260</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>2452020278</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>2452020293</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>2452020297</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>2452020298</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
       <c r="D31" t="s">
         <v>4</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:6">
+      <c r="A32" s="5">
         <v>2452020306</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C32">
@@ -1167,12 +1867,15 @@
       <c r="E32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:6">
+      <c r="A33" s="4">
         <v>2452020309</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C33">
@@ -1184,12 +1887,15 @@
       <c r="E33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:6">
+      <c r="A34" s="5">
         <v>2452020323</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C34">
@@ -1202,12 +1908,15 @@
       <c r="E34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:6">
+      <c r="A35" s="4">
         <v>2452020347</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C35">
@@ -1220,12 +1929,15 @@
       <c r="E35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:6">
+      <c r="A36" s="5">
         <v>2452020357</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C36">
@@ -1238,12 +1950,15 @@
       <c r="E36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:6">
+      <c r="A37" s="4">
         <v>2452020371</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C37">
@@ -1256,12 +1971,15 @@
       <c r="E37" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:6">
+      <c r="A38" s="5">
         <v>2452020381</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C38">
@@ -1274,12 +1992,15 @@
       <c r="E38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:6">
+      <c r="A39" s="4">
         <v>2452020390</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C39">
@@ -1292,12 +2013,15 @@
       <c r="E39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:6">
+      <c r="A40" s="5">
         <v>2452020397</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C40">
@@ -1310,12 +2034,15 @@
       <c r="E40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:6">
+      <c r="A41" s="4">
         <v>2452020410</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C41">
@@ -1323,17 +2050,20 @@
         <v>98.5</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="F41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:6">
+      <c r="A42" s="5">
         <v>2452020421</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C42">
@@ -1346,12 +2076,15 @@
       <c r="E42" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:6">
+      <c r="A43" s="4">
         <v>2452020424</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C43">
@@ -1364,12 +2097,15 @@
       <c r="E43" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="F43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:6">
+      <c r="A44" s="5">
         <v>2452020454</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C44">
@@ -1382,30 +2118,36 @@
       <c r="E44" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:6">
+      <c r="A45" s="4">
         <v>2452020478</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:6">
+      <c r="A46" s="5">
         <v>2452020484</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C46">
@@ -1418,30 +2160,36 @@
       <c r="E46" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="F46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:6">
+      <c r="A47" s="4">
         <v>2452020759</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:6">
+      <c r="A48" s="5">
         <v>2452020821</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C48">
@@ -1454,12 +2202,15 @@
       <c r="E48" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="1:6">
+      <c r="A49" s="4">
         <v>2452020828</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C49">
@@ -1472,19 +2223,22 @@
       <c r="E49" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" ht="78" customHeight="1" spans="4:15">
       <c r="D50">
         <f>COUNTIF(D3:D49,"×")</f>
         <v>5</v>
       </c>
       <c r="E50">
         <f t="shared" ref="E50:O50" si="1">COUNTIF(E3:E49,"×")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
@@ -1523,17 +2277,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="H52" s="4" t="s">
+    <row r="52" ht="30" spans="8:15">
+      <c r="H52" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1542,8 +2296,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C$1:C$1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percentile" val="20"/>
@@ -1554,6 +2307,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/24网络技术3班考勤.xlsx
+++ b/24网络技术3班考勤.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="21000" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="53">
   <si>
     <t>学号</t>
   </si>
@@ -1208,8 +1208,8 @@
   <sheetPr/>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1228,7 +1228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:6">
+    <row r="2" ht="15" spans="1:8">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -1241,8 +1241,14 @@
       <c r="F2">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:6">
+      <c r="G2">
+        <v>9.16</v>
+      </c>
+      <c r="H2">
+        <v>9.22</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:8">
       <c r="A3" s="4">
         <v>2452020005</v>
       </c>
@@ -1262,8 +1268,14 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" ht="15" spans="1:6">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:8">
       <c r="A4" s="5">
         <v>2452020012</v>
       </c>
@@ -1283,8 +1295,14 @@
       <c r="F4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" ht="15" spans="1:6">
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:8">
       <c r="A5" s="4">
         <v>2452020033</v>
       </c>
@@ -1293,7 +1311,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>95.5</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -1304,8 +1322,14 @@
       <c r="F5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" ht="15" spans="1:6">
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:8">
       <c r="A6" s="5">
         <v>2452020048</v>
       </c>
@@ -1325,8 +1349,14 @@
       <c r="F6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" ht="15" spans="1:6">
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>2452020059</v>
       </c>
@@ -1345,8 +1375,14 @@
       <c r="F7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" ht="15" spans="1:6">
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="5">
         <v>2452020062</v>
       </c>
@@ -1366,8 +1402,14 @@
       <c r="F8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" ht="15" spans="1:6">
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>2452020068</v>
       </c>
@@ -1387,8 +1429,14 @@
       <c r="F9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" ht="15" spans="1:6">
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:8">
       <c r="A10" s="5">
         <v>2452020071</v>
       </c>
@@ -1408,8 +1456,14 @@
       <c r="F10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" ht="15" spans="1:6">
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:8">
       <c r="A11" s="6">
         <v>2452020072</v>
       </c>
@@ -1418,7 +1472,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>95.5</v>
+        <v>92.5</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1429,8 +1483,14 @@
       <c r="F11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" ht="15" spans="1:6">
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:8">
       <c r="A12" s="5">
         <v>2452020091</v>
       </c>
@@ -1450,8 +1510,14 @@
       <c r="F12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" ht="15" spans="1:6">
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>2452020094</v>
       </c>
@@ -1471,8 +1537,14 @@
       <c r="F13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" ht="15" spans="1:6">
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="5">
         <v>2452020098</v>
       </c>
@@ -1492,8 +1564,14 @@
       <c r="F14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" ht="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:8">
       <c r="A15" s="4">
         <v>2452020105</v>
       </c>
@@ -1513,8 +1591,14 @@
       <c r="F15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" ht="15" spans="1:6">
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:8">
       <c r="A16" s="5">
         <v>2452020117</v>
       </c>
@@ -1523,7 +1607,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -1534,8 +1618,14 @@
       <c r="F16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" ht="15" spans="1:6">
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:8">
       <c r="A17" s="4">
         <v>2452020132</v>
       </c>
@@ -1544,7 +1634,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -1555,8 +1645,14 @@
       <c r="F17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" ht="15" spans="1:6">
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:8">
       <c r="A18" s="5">
         <v>2452020133</v>
       </c>
@@ -1576,8 +1672,14 @@
       <c r="F18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" ht="15" spans="1:6">
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:8">
       <c r="A19" s="4">
         <v>2452020143</v>
       </c>
@@ -1586,7 +1688,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -1597,8 +1699,14 @@
       <c r="F19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" ht="15" spans="1:6">
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:8">
       <c r="A20" s="5">
         <v>2452020164</v>
       </c>
@@ -1618,8 +1726,14 @@
       <c r="F20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" ht="15" spans="1:6">
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>2452020176</v>
       </c>
@@ -1639,8 +1753,14 @@
       <c r="F21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" ht="15" spans="1:6">
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="5">
         <v>2452020203</v>
       </c>
@@ -1660,8 +1780,14 @@
       <c r="F22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" ht="15" spans="1:6">
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>2452020205</v>
       </c>
@@ -1681,8 +1807,14 @@
       <c r="F23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" ht="15" spans="1:6">
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:8">
       <c r="A24" s="5">
         <v>2452020236</v>
       </c>
@@ -1691,7 +1823,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -1702,8 +1834,14 @@
       <c r="F24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" ht="15" spans="1:6">
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:8">
       <c r="A25" s="4">
         <v>2452020243</v>
       </c>
@@ -1712,7 +1850,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>95.5</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1723,8 +1861,14 @@
       <c r="F25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" ht="15" spans="1:6">
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:8">
       <c r="A26" s="5">
         <v>2452020253</v>
       </c>
@@ -1733,7 +1877,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -1744,8 +1888,14 @@
       <c r="F26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" ht="15" spans="1:6">
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:8">
       <c r="A27" s="4">
         <v>2452020260</v>
       </c>
@@ -1754,7 +1904,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>95.5</v>
+        <v>92.5</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1765,8 +1915,14 @@
       <c r="F27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" ht="15" spans="1:6">
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:8">
       <c r="A28" s="5">
         <v>2452020278</v>
       </c>
@@ -1786,8 +1942,14 @@
       <c r="F28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" ht="15" spans="1:6">
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>2452020293</v>
       </c>
@@ -1807,8 +1969,14 @@
       <c r="F29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" ht="15" spans="1:6">
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:8">
       <c r="A30" s="5">
         <v>2452020297</v>
       </c>
@@ -1828,8 +1996,14 @@
       <c r="F30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" ht="15" spans="1:6">
+      <c r="G30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:8">
       <c r="A31" s="4">
         <v>2452020298</v>
       </c>
@@ -1838,7 +2012,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>95.5</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -1849,8 +2023,14 @@
       <c r="F31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" ht="15" spans="1:6">
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:8">
       <c r="A32" s="5">
         <v>2452020306</v>
       </c>
@@ -1859,7 +2039,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -1870,8 +2050,14 @@
       <c r="F32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" ht="15" spans="1:6">
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>2452020309</v>
       </c>
@@ -1890,8 +2076,14 @@
       <c r="F33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" ht="15" spans="1:6">
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="5">
         <v>2452020323</v>
       </c>
@@ -1900,7 +2092,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -1911,8 +2103,14 @@
       <c r="F34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" ht="15" spans="1:6">
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <v>2452020347</v>
       </c>
@@ -1932,8 +2130,14 @@
       <c r="F35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" ht="15" spans="1:6">
+      <c r="G35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="5">
         <v>2452020357</v>
       </c>
@@ -1953,8 +2157,14 @@
       <c r="F36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" ht="15" spans="1:6">
+      <c r="G36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:8">
       <c r="A37" s="4">
         <v>2452020371</v>
       </c>
@@ -1974,8 +2184,14 @@
       <c r="F37" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" ht="15" spans="1:6">
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:8">
       <c r="A38" s="5">
         <v>2452020381</v>
       </c>
@@ -1984,7 +2200,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -1995,8 +2211,14 @@
       <c r="F38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" ht="15" spans="1:6">
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:8">
       <c r="A39" s="4">
         <v>2452020390</v>
       </c>
@@ -2016,8 +2238,14 @@
       <c r="F39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" ht="15" spans="1:6">
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="5">
         <v>2452020397</v>
       </c>
@@ -2037,8 +2265,14 @@
       <c r="F40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" ht="15" spans="1:6">
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="4">
         <v>2452020410</v>
       </c>
@@ -2058,8 +2292,14 @@
       <c r="F41" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" ht="15" spans="1:6">
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="5">
         <v>2452020421</v>
       </c>
@@ -2079,8 +2319,14 @@
       <c r="F42" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" ht="15" spans="1:6">
+      <c r="G42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="4">
         <v>2452020424</v>
       </c>
@@ -2100,8 +2346,14 @@
       <c r="F43" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" ht="15" spans="1:6">
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:8">
       <c r="A44" s="5">
         <v>2452020454</v>
       </c>
@@ -2121,8 +2373,14 @@
       <c r="F44" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" ht="15" spans="1:6">
+      <c r="G44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:8">
       <c r="A45" s="4">
         <v>2452020478</v>
       </c>
@@ -2131,7 +2389,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
@@ -2142,8 +2400,14 @@
       <c r="F45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" ht="15" spans="1:6">
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:8">
       <c r="A46" s="5">
         <v>2452020484</v>
       </c>
@@ -2163,8 +2427,14 @@
       <c r="F46" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" ht="15" spans="1:6">
+      <c r="G46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:8">
       <c r="A47" s="4">
         <v>2452020759</v>
       </c>
@@ -2173,7 +2443,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>95.5</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -2184,8 +2454,14 @@
       <c r="F47" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" ht="15" spans="1:6">
+      <c r="G47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:8">
       <c r="A48" s="5">
         <v>2452020821</v>
       </c>
@@ -2205,8 +2481,14 @@
       <c r="F48" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" ht="15" spans="1:6">
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="4">
         <v>2452020828</v>
       </c>
@@ -2224,6 +2506,12 @@
         <v>4</v>
       </c>
       <c r="F49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2242,11 +2530,11 @@
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>

--- a/24网络技术3班考勤.xlsx
+++ b/24网络技术3班考勤.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="54">
   <si>
     <t>学号</t>
   </si>
@@ -36,15 +37,15 @@
     <t>√</t>
   </si>
   <si>
+    <t>×</t>
+  </si>
+  <si>
     <t>官长皓</t>
   </si>
   <si>
     <t>刘柯纬</t>
   </si>
   <si>
-    <t>×</t>
-  </si>
-  <si>
     <t>张智献</t>
   </si>
   <si>
@@ -178,13 +179,17 @@
   </si>
   <si>
     <t>√、正常、△、迟到、○早退、×缺勤</t>
+  </si>
+  <si>
+    <t>打扫卫生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +216,54 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="6" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="0.39997558519241921"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -299,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -308,6 +361,26 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -320,6 +393,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,8 +675,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="B1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -607,21 +686,21 @@
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
       <c r="D2">
         <v>9.8000000000000007</v>
       </c>
@@ -640,8 +719,20 @@
       <c r="I2">
         <v>9.23</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="K2">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="L2">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="M2">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2452020005</v>
       </c>
@@ -650,7 +741,7 @@
       </c>
       <c r="C3">
         <f>100-COUNTIF(D3:Z3,"×")*1.5</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -670,13 +761,25 @@
       <c r="I3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2452020012</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C49" si="0">100-COUNTIF(D4:Z4,"×")*1.5</f>
@@ -700,17 +803,29 @@
       <c r="I4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2452020033</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -719,19 +834,31 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2452020048</v>
       </c>
@@ -740,7 +867,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -760,8 +887,20 @@
       <c r="I6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2452020059</v>
       </c>
@@ -769,7 +908,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -789,8 +928,20 @@
       <c r="I7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>2452020062</v>
       </c>
@@ -799,7 +950,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -819,8 +970,20 @@
       <c r="I8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2452020068</v>
       </c>
@@ -829,7 +992,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -849,8 +1012,20 @@
       <c r="I9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2452020071</v>
       </c>
@@ -859,7 +1034,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -879,38 +1054,62 @@
       <c r="I10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2452020072</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2452020091</v>
       </c>
@@ -939,8 +1138,20 @@
       <c r="I12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2452020094</v>
       </c>
@@ -949,7 +1160,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -969,8 +1180,20 @@
       <c r="I13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2452020098</v>
       </c>
@@ -979,7 +1202,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -997,10 +1220,22 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2452020105</v>
       </c>
@@ -1009,7 +1244,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -1029,8 +1264,20 @@
       <c r="I15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2452020117</v>
       </c>
@@ -1039,7 +1286,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>95.5</v>
+        <v>89.5</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -1051,16 +1298,28 @@
         <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2452020132</v>
       </c>
@@ -1069,7 +1328,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -1081,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -1089,8 +1348,20 @@
       <c r="I17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2452020133</v>
       </c>
@@ -1099,7 +1370,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -1119,8 +1390,20 @@
       <c r="I18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2452020143</v>
       </c>
@@ -1129,7 +1412,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -1144,13 +1427,25 @@
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2452020164</v>
       </c>
@@ -1179,8 +1474,20 @@
       <c r="I20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2452020176</v>
       </c>
@@ -1209,8 +1516,20 @@
       <c r="I21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2452020203</v>
       </c>
@@ -1239,8 +1558,20 @@
       <c r="I22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2452020205</v>
       </c>
@@ -1269,8 +1600,20 @@
       <c r="I23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2452020236</v>
       </c>
@@ -1279,7 +1622,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -1291,16 +1634,28 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2452020243</v>
       </c>
@@ -1309,28 +1664,40 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G25" t="s">
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>2452020253</v>
       </c>
@@ -1339,13 +1706,13 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>95.5</v>
+        <v>89.5</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
@@ -1354,43 +1721,67 @@
         <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>2452020260</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="6">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2452020278</v>
       </c>
@@ -1419,8 +1810,20 @@
       <c r="I28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2452020293</v>
       </c>
@@ -1449,8 +1852,20 @@
       <c r="I29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2452020297</v>
       </c>
@@ -1459,7 +1874,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>92.5</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -1477,10 +1892,22 @@
         <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2452020298</v>
       </c>
@@ -1489,7 +1916,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -1498,19 +1925,31 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>2452020306</v>
       </c>
@@ -1519,7 +1958,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>92.5</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -1531,16 +1970,28 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2452020309</v>
       </c>
@@ -1548,7 +1999,7 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -1568,8 +2019,20 @@
       <c r="I33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2452020323</v>
       </c>
@@ -1578,7 +2041,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -1590,16 +2053,28 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2452020347</v>
       </c>
@@ -1608,7 +2083,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -1628,8 +2103,20 @@
       <c r="I35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2452020357</v>
       </c>
@@ -1658,8 +2145,20 @@
       <c r="I36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36" t="s">
+        <v>4</v>
+      </c>
+      <c r="M36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2452020371</v>
       </c>
@@ -1668,7 +2167,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -1688,8 +2187,20 @@
       <c r="I37" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>4</v>
+      </c>
+      <c r="L37" t="s">
+        <v>5</v>
+      </c>
+      <c r="M37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>2452020381</v>
       </c>
@@ -1698,7 +2209,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -1710,16 +2221,28 @@
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" t="s">
+        <v>5</v>
+      </c>
+      <c r="L38" t="s">
+        <v>5</v>
+      </c>
+      <c r="M38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2452020390</v>
       </c>
@@ -1728,7 +2251,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>92.5</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -1746,10 +2269,22 @@
         <v>4</v>
       </c>
       <c r="I39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" t="s">
+        <v>5</v>
+      </c>
+      <c r="L39" t="s">
+        <v>5</v>
+      </c>
+      <c r="M39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2452020397</v>
       </c>
@@ -1758,7 +2293,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
@@ -1778,8 +2313,20 @@
       <c r="I40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K40" t="s">
+        <v>5</v>
+      </c>
+      <c r="L40" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2452020410</v>
       </c>
@@ -1788,10 +2335,10 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>95.5</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -1806,10 +2353,22 @@
         <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>2452020421</v>
       </c>
@@ -1818,7 +2377,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
@@ -1836,10 +2395,22 @@
         <v>4</v>
       </c>
       <c r="I42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J42" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2452020424</v>
       </c>
@@ -1848,7 +2419,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -1868,8 +2439,20 @@
       <c r="I43" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2452020454</v>
       </c>
@@ -1878,7 +2461,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
@@ -1898,8 +2481,20 @@
       <c r="I44" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2452020478</v>
       </c>
@@ -1908,28 +2503,40 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>86.5</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J45" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>2452020484</v>
       </c>
@@ -1938,7 +2545,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -1958,8 +2565,20 @@
       <c r="I46" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2452020759</v>
       </c>
@@ -1968,28 +2587,40 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G47" t="s">
         <v>4</v>
       </c>
       <c r="H47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="J47" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>2452020821</v>
       </c>
@@ -2016,6 +2647,18 @@
         <v>4</v>
       </c>
       <c r="I48" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2028,7 +2671,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -2046,6 +2689,18 @@
         <v>4</v>
       </c>
       <c r="I49" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2076,19 +2731,19 @@
       </c>
       <c r="J50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N50">
         <f t="shared" si="1"/>
@@ -2100,16 +2755,16 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2132,4 +2787,93 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/24网络技术3班考勤.xlsx
+++ b/24网络技术3班考勤.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2025\教学\网站设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2025\教学\网站设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -383,6 +383,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -395,9 +398,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -675,10 +675,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="L4" sqref="L4"/>
+      <selection pane="topRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -687,20 +687,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
       <c r="D2">
         <v>9.8000000000000007</v>
       </c>
@@ -740,8 +740,8 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <f>100-COUNTIF(D3:Z3,"×")*1.5</f>
-        <v>97</v>
+        <f>100-COUNTIF(D3:Z3,"×")*3</f>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -782,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C49" si="0">100-COUNTIF(D4:Z4,"×")*1.5</f>
+        <f t="shared" ref="C4:C49" si="0">100-COUNTIF(D4:Z4,"×")*3</f>
         <v>100</v>
       </c>
       <c r="D4" t="s">
@@ -825,7 +825,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -908,7 +908,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -950,7 +950,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>95.5</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -992,7 +992,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>89.5</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>95.5</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>89.5</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -1746,9 +1746,9 @@
       <c r="B27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="6">
-        <f t="shared" si="0"/>
-        <v>85</v>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>5</v>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -1999,7 +1999,7 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>92.5</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>95.5</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>95.5</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>86.5</v>
+        <v>73</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>95.5</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -2755,16 +2755,16 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2793,20 +2793,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -2819,7 +2819,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
     </row>

--- a/24网络技术3班考勤.xlsx
+++ b/24网络技术3班考勤.xlsx
@@ -5,22 +5,23 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2025\教学\网站设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2025\教学\网站设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="考勤" sheetId="3" r:id="rId1"/>
+    <sheet name="实验报告" sheetId="5" r:id="rId2"/>
+    <sheet name="打扫卫生" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="55">
   <si>
     <t>学号</t>
   </si>
@@ -191,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +276,20 @@
       <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -363,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,6 +422,12 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -419,6 +440,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -696,11 +719,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="P32" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="P8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -708,21 +731,21 @@
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2">
         <v>9.8000000000000007</v>
       </c>
@@ -765,8 +788,11 @@
       <c r="Q2">
         <v>10.27</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2452020005</v>
       </c>
@@ -819,8 +845,11 @@
       <c r="Q3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2452020012</v>
       </c>
@@ -873,8 +902,11 @@
       <c r="Q4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2452020033</v>
       </c>
@@ -883,7 +915,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -927,8 +959,11 @@
       <c r="Q5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2452020048</v>
       </c>
@@ -937,7 +972,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -981,8 +1016,11 @@
       <c r="Q6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2452020059</v>
       </c>
@@ -1034,8 +1072,11 @@
       <c r="Q7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>2452020062</v>
       </c>
@@ -1088,8 +1129,11 @@
       <c r="Q8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2452020068</v>
       </c>
@@ -1142,8 +1186,11 @@
       <c r="Q9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2452020071</v>
       </c>
@@ -1196,8 +1243,11 @@
       <c r="Q10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>2452020072</v>
       </c>
@@ -1206,7 +1256,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -1250,8 +1300,11 @@
       <c r="Q11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2452020091</v>
       </c>
@@ -1304,8 +1357,11 @@
       <c r="Q12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2452020094</v>
       </c>
@@ -1358,8 +1414,11 @@
       <c r="Q13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>2452020098</v>
       </c>
@@ -1412,8 +1471,11 @@
       <c r="Q14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2452020105</v>
       </c>
@@ -1466,8 +1528,11 @@
       <c r="Q15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>2452020117</v>
       </c>
@@ -1476,7 +1541,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -1520,8 +1585,11 @@
       <c r="Q16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2452020132</v>
       </c>
@@ -1574,8 +1642,11 @@
       <c r="Q17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>2452020133</v>
       </c>
@@ -1628,8 +1699,11 @@
       <c r="Q18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2452020143</v>
       </c>
@@ -1682,8 +1756,11 @@
       <c r="Q19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>2452020164</v>
       </c>
@@ -1736,8 +1813,11 @@
       <c r="Q20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2452020176</v>
       </c>
@@ -1790,8 +1870,11 @@
       <c r="Q21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>2452020203</v>
       </c>
@@ -1844,8 +1927,11 @@
       <c r="Q22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>2452020205</v>
       </c>
@@ -1898,8 +1984,11 @@
       <c r="Q23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>2452020236</v>
       </c>
@@ -1952,8 +2041,11 @@
       <c r="Q24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>2452020243</v>
       </c>
@@ -1962,7 +2054,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -2006,8 +2098,11 @@
       <c r="Q25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>2452020253</v>
       </c>
@@ -2016,7 +2111,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -2060,8 +2155,11 @@
       <c r="Q26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>2452020260</v>
       </c>
@@ -2070,7 +2168,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>6</v>
@@ -2114,8 +2212,11 @@
       <c r="Q27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>2452020278</v>
       </c>
@@ -2168,8 +2269,11 @@
       <c r="Q28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>2452020293</v>
       </c>
@@ -2222,8 +2326,11 @@
       <c r="Q29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>2452020297</v>
       </c>
@@ -2276,8 +2383,11 @@
       <c r="Q30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>2452020298</v>
       </c>
@@ -2286,7 +2396,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -2330,8 +2440,11 @@
       <c r="Q31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>2452020306</v>
       </c>
@@ -2384,8 +2497,11 @@
       <c r="Q32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>2452020309</v>
       </c>
@@ -2393,7 +2509,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -2437,8 +2553,11 @@
       <c r="Q33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>2452020323</v>
       </c>
@@ -2491,8 +2610,11 @@
       <c r="Q34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>2452020347</v>
       </c>
@@ -2501,7 +2623,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -2545,8 +2667,11 @@
       <c r="Q35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>2452020357</v>
       </c>
@@ -2599,8 +2724,11 @@
       <c r="Q36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>2452020371</v>
       </c>
@@ -2653,8 +2781,11 @@
       <c r="Q37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>2452020381</v>
       </c>
@@ -2663,7 +2794,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -2707,8 +2838,11 @@
       <c r="Q38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>2452020390</v>
       </c>
@@ -2761,8 +2895,11 @@
       <c r="Q39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>2452020397</v>
       </c>
@@ -2771,7 +2908,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -2815,8 +2952,11 @@
       <c r="Q40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>2452020410</v>
       </c>
@@ -2869,8 +3009,11 @@
       <c r="Q41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>2452020421</v>
       </c>
@@ -2923,8 +3066,11 @@
       <c r="Q42" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>2452020424</v>
       </c>
@@ -2977,8 +3123,11 @@
       <c r="Q43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>2452020454</v>
       </c>
@@ -3031,8 +3180,11 @@
       <c r="Q44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>2452020478</v>
       </c>
@@ -3041,7 +3193,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -3085,8 +3237,11 @@
       <c r="Q45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>2452020484</v>
       </c>
@@ -3095,7 +3250,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -3139,8 +3294,11 @@
       <c r="Q46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>2452020759</v>
       </c>
@@ -3149,7 +3307,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
@@ -3193,8 +3351,11 @@
       <c r="Q47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>2452020821</v>
       </c>
@@ -3247,6 +3408,9 @@
       <c r="Q48" t="s">
         <v>5</v>
       </c>
+      <c r="R48" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
@@ -3301,6 +3465,9 @@
       <c r="Q49" t="s">
         <v>6</v>
       </c>
+      <c r="R49" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" spans="1:64" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D50">
@@ -3361,7 +3528,7 @@
       </c>
       <c r="R50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S50">
         <f t="shared" si="2"/>
@@ -3549,16 +3716,16 @@
       </c>
     </row>
     <row r="52" spans="1:64" ht="30" x14ac:dyDescent="0.4">
-      <c r="H52" s="17" t="s">
+      <c r="H52" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3585,22 +3752,432 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="25">
+        <v>45958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -3615,6 +4192,9 @@
       <c r="D2">
         <v>10.27</v>
       </c>
+      <c r="E2">
+        <v>10.28</v>
+      </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3629,6 +4209,9 @@
       <c r="D3" s="15" t="s">
         <v>21</v>
       </c>
+      <c r="E3" s="18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3641,6 +4224,9 @@
         <v>17</v>
       </c>
       <c r="D4" s="16"/>
+      <c r="E4" s="18" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -3653,6 +4239,9 @@
         <v>18</v>
       </c>
       <c r="D5" s="5"/>
+      <c r="E5" s="18" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -3665,6 +4254,9 @@
         <v>19</v>
       </c>
       <c r="D6" s="3"/>
+      <c r="E6" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -3674,6 +4266,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -3682,8 +4275,11 @@
       <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3693,13 +4289,19 @@
       <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="E9" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3722,12 +4324,12 @@
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3747,7 +4349,7 @@
       </c>
     </row>
     <row r="18" spans="4:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="17" t="s">
         <v>36</v>
       </c>
     </row>

--- a/24网络技术3班考勤.xlsx
+++ b/24网络技术3班考勤.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2025\教学\网站设计\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="考勤" sheetId="3" r:id="rId1"/>
     <sheet name="实验报告" sheetId="5" r:id="rId2"/>
     <sheet name="打扫卫生" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="55">
   <si>
     <t>学号</t>
   </si>
@@ -191,8 +186,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,45 +209,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="6" tint="0.399945066682943"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="6" tint="0.39994506668294322"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="6" tint="0.39994506668294322"/>
+      <color theme="6" tint="0.399945066682943"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -259,40 +272,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,8 +441,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -356,15 +666,6 @@
       <left style="medium">
         <color rgb="FFDDDDDD"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
       <right style="medium">
         <color rgb="FFDDDDDD"/>
       </right>
@@ -374,86 +675,381 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -711,43 +1307,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BL52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="P8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="P41" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+    <row r="2" ht="15" spans="1:19">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="23"/>
       <c r="D2">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="E2">
         <v>9.9</v>
@@ -759,19 +1356,19 @@
         <v>9.16</v>
       </c>
       <c r="H2">
-        <v>9.2200000000000006</v>
+        <v>9.22</v>
       </c>
       <c r="I2">
         <v>9.23</v>
       </c>
       <c r="J2">
-        <v>9.2799999999999994</v>
+        <v>9.28</v>
       </c>
       <c r="K2">
-        <v>9.2899999999999991</v>
+        <v>9.29</v>
       </c>
       <c r="L2">
-        <v>10.130000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="M2">
         <v>10.14</v>
@@ -779,11 +1376,11 @@
       <c r="N2">
         <v>10.18</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="P2">
-        <v>10.210000000000001</v>
+        <v>10.21</v>
       </c>
       <c r="Q2">
         <v>10.27</v>
@@ -791,12 +1388,15 @@
       <c r="R2">
         <v>10.28</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="S2">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:19">
+      <c r="A3" s="14">
         <v>2452020005</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -848,12 +1448,15 @@
       <c r="R3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:19">
+      <c r="A4" s="12">
         <v>2452020012</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C4">
@@ -905,12 +1508,15 @@
       <c r="R4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="S4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:19">
+      <c r="A5" s="14">
         <v>2452020033</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C5">
@@ -962,12 +1568,15 @@
       <c r="R5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="S5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:19">
+      <c r="A6" s="12">
         <v>2452020048</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C6">
@@ -1019,12 +1628,15 @@
       <c r="R6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="S6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:19">
+      <c r="A7" s="14">
         <v>2452020059</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C7">
@@ -1075,12 +1687,15 @@
       <c r="R7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="S7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:19">
+      <c r="A8" s="12">
         <v>2452020062</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C8">
@@ -1132,12 +1747,15 @@
       <c r="R8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="S8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:19">
+      <c r="A9" s="14">
         <v>2452020068</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C9">
@@ -1189,12 +1807,15 @@
       <c r="R9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="S9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:19">
+      <c r="A10" s="12">
         <v>2452020071</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C10">
@@ -1246,17 +1867,20 @@
       <c r="R10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="S10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:19">
+      <c r="A11" s="24">
         <v>2452020072</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -1303,12 +1927,15 @@
       <c r="R11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="S11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:19">
+      <c r="A12" s="12">
         <v>2452020091</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C12">
@@ -1360,12 +1987,15 @@
       <c r="R12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="S12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:19">
+      <c r="A13" s="14">
         <v>2452020094</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C13">
@@ -1417,12 +2047,15 @@
       <c r="R13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:19">
+      <c r="A14" s="12">
         <v>2452020098</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C14">
@@ -1474,12 +2107,15 @@
       <c r="R14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="S14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:19">
+      <c r="A15" s="14">
         <v>2452020105</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C15">
@@ -1531,17 +2167,20 @@
       <c r="R15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="S15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:19">
+      <c r="A16" s="12">
         <v>2452020117</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -1588,12 +2227,15 @@
       <c r="R16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="S16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:19">
+      <c r="A17" s="14">
         <v>2452020132</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C17">
@@ -1645,12 +2287,15 @@
       <c r="R17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="S17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:19">
+      <c r="A18" s="12">
         <v>2452020133</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C18">
@@ -1702,12 +2347,15 @@
       <c r="R18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="S18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:19">
+      <c r="A19" s="14">
         <v>2452020143</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C19">
@@ -1759,12 +2407,15 @@
       <c r="R19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="S19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:19">
+      <c r="A20" s="12">
         <v>2452020164</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C20">
@@ -1816,12 +2467,15 @@
       <c r="R20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="S20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:19">
+      <c r="A21" s="14">
         <v>2452020176</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C21">
@@ -1873,12 +2527,15 @@
       <c r="R21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="S21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:19">
+      <c r="A22" s="12">
         <v>2452020203</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C22">
@@ -1930,12 +2587,15 @@
       <c r="R22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="S22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:19">
+      <c r="A23" s="14">
         <v>2452020205</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C23">
@@ -1987,12 +2647,15 @@
       <c r="R23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="S23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:19">
+      <c r="A24" s="12">
         <v>2452020236</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C24">
@@ -2044,17 +2707,20 @@
       <c r="R24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="S24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:19">
+      <c r="A25" s="14">
         <v>2452020243</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -2101,12 +2767,15 @@
       <c r="R25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="S25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:19">
+      <c r="A26" s="12">
         <v>2452020253</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C26">
@@ -2158,43 +2827,46 @@
       <c r="R26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="S26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" s="22" customFormat="1" ht="15" spans="1:19">
+      <c r="A27" s="16">
         <v>2452020260</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="22" t="s">
         <v>6</v>
       </c>
       <c r="M27" t="s">
@@ -2215,12 +2887,15 @@
       <c r="R27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="S27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:19">
+      <c r="A28" s="12">
         <v>2452020278</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C28">
@@ -2272,12 +2947,15 @@
       <c r="R28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="S28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:19">
+      <c r="A29" s="14">
         <v>2452020293</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C29">
@@ -2329,17 +3007,20 @@
       <c r="R29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="S29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:19">
+      <c r="A30" s="12">
         <v>2452020297</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -2386,17 +3067,20 @@
       <c r="R30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="S30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:19">
+      <c r="A31" s="14">
         <v>2452020298</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -2443,12 +3127,15 @@
       <c r="R31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="S31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:19">
+      <c r="A32" s="12">
         <v>2452020306</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C32">
@@ -2500,12 +3187,15 @@
       <c r="R32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="S32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:19">
+      <c r="A33" s="14">
         <v>2452020309</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C33">
@@ -2556,12 +3246,15 @@
       <c r="R33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="S33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:19">
+      <c r="A34" s="12">
         <v>2452020323</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C34">
@@ -2613,12 +3306,15 @@
       <c r="R34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="S34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:19">
+      <c r="A35" s="14">
         <v>2452020347</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C35">
@@ -2670,12 +3366,15 @@
       <c r="R35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="S35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:19">
+      <c r="A36" s="12">
         <v>2452020357</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C36">
@@ -2727,12 +3426,15 @@
       <c r="R36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="S36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:19">
+      <c r="A37" s="14">
         <v>2452020371</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C37">
@@ -2784,12 +3486,15 @@
       <c r="R37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="S37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:19">
+      <c r="A38" s="12">
         <v>2452020381</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C38">
@@ -2841,17 +3546,20 @@
       <c r="R38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="S38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:19">
+      <c r="A39" s="14">
         <v>2452020390</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -2898,17 +3606,20 @@
       <c r="R39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="S39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:19">
+      <c r="A40" s="12">
         <v>2452020397</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -2955,12 +3666,15 @@
       <c r="R40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="S40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:19">
+      <c r="A41" s="14">
         <v>2452020410</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C41">
@@ -3012,12 +3726,15 @@
       <c r="R41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="S41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:19">
+      <c r="A42" s="12">
         <v>2452020421</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C42">
@@ -3069,12 +3786,15 @@
       <c r="R42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="S42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:19">
+      <c r="A43" s="14">
         <v>2452020424</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C43">
@@ -3126,12 +3846,15 @@
       <c r="R43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="S43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:19">
+      <c r="A44" s="12">
         <v>2452020454</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C44">
@@ -3183,17 +3906,20 @@
       <c r="R44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="S44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:19">
+      <c r="A45" s="14">
         <v>2452020478</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -3240,12 +3966,15 @@
       <c r="R45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="S45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:19">
+      <c r="A46" s="12">
         <v>2452020484</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C46">
@@ -3297,17 +4026,20 @@
       <c r="R46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="S46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:19">
+      <c r="A47" s="14">
         <v>2452020759</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
@@ -3354,12 +4086,15 @@
       <c r="R47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="S47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:19">
+      <c r="A48" s="12">
         <v>2452020821</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C48">
@@ -3411,12 +4146,15 @@
       <c r="R48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="S48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="1:19">
+      <c r="A49" s="14">
         <v>2452020828</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C49">
@@ -3468,14 +4206,17 @@
       <c r="R49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:64" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" ht="78" customHeight="1" spans="4:64">
       <c r="D50">
         <f>COUNTIF(D3:D49,"×")</f>
         <v>5</v>
       </c>
       <c r="E50">
-        <f t="shared" ref="E50:N50" si="1">COUNTIF(E3:E49,"×")</f>
+        <f t="shared" ref="E50:O50" si="1">COUNTIF(E3:E49,"×")</f>
         <v>4</v>
       </c>
       <c r="F50">
@@ -3515,7 +4256,7 @@
         <v>17</v>
       </c>
       <c r="O50">
-        <f>COUNTIF(O3:O49,"×")</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="P50">
@@ -3532,7 +4273,7 @@
       </c>
       <c r="S50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T50">
         <f t="shared" si="2"/>
@@ -3715,17 +4456,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:64" ht="30" x14ac:dyDescent="0.4">
-      <c r="H52" s="19" t="s">
+    <row r="52" ht="30" spans="8:15">
+      <c r="H52" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3734,8 +4475,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C$1:C$1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percentile" val="20"/>
@@ -3746,404 +4486,406 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="25">
+    <row r="2" ht="15" spans="1:2">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20">
         <v>45958</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="24.75" spans="1:2">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="24" spans="1:2">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" ht="24" spans="1:2">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="B5" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="24" spans="1:2">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:2">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" ht="15" spans="1:2">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" ht="15" spans="1:2">
+      <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+    <row r="10" ht="24" spans="1:2">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" ht="24" spans="1:2">
+      <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:2">
+      <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" ht="15" spans="1:2">
+      <c r="A13" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" ht="15" spans="1:2">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" ht="15" spans="1:2">
+      <c r="A15" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
+    <row r="16" ht="24" spans="1:2">
+      <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:2">
+      <c r="A17" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" ht="15" spans="1:2">
+      <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
+    <row r="19" ht="24" spans="1:2">
+      <c r="A19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B19" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:2">
+      <c r="A20" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" ht="15" spans="1:2">
+      <c r="A21" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" ht="15" spans="1:2">
+      <c r="A22" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" ht="15" spans="1:2">
+      <c r="A23" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
+    <row r="24" ht="24" spans="1:2">
+      <c r="A24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" ht="24" spans="1:2">
+      <c r="A25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+      <c r="B25" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" ht="24" spans="1:2">
+      <c r="A26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="13" t="s">
+      <c r="B26" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" ht="24" spans="1:2">
+      <c r="A27" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="B27" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:2">
+      <c r="A28" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" ht="15" spans="1:2">
+      <c r="A29" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
+    <row r="30" ht="24" spans="1:2">
+      <c r="A30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
+      <c r="B30" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" ht="24" spans="1:2">
+      <c r="A31" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
+      <c r="B31" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" ht="24" spans="1:2">
+      <c r="A32" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
+      <c r="B32" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" ht="24" spans="1:2">
+      <c r="A33" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
+      <c r="B33" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" ht="24" spans="1:2">
+      <c r="A34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
+      <c r="B34" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" ht="24" spans="1:2">
+      <c r="A35" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="B35" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:2">
+      <c r="A36" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="37" ht="15" spans="1:2">
+      <c r="A37" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="5" t="s">
+    <row r="38" ht="24" spans="1:2">
+      <c r="A38" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="3" t="s">
+      <c r="B38" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" ht="24" spans="1:2">
+      <c r="A39" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="5" t="s">
+      <c r="B39" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" ht="24" spans="1:2">
+      <c r="A40" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="B40" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:2">
+      <c r="A41" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="5" t="s">
+    <row r="42" ht="24" spans="1:2">
+      <c r="A42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="B42" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:2">
+      <c r="A43" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="5" t="s">
+    <row r="44" ht="24" spans="1:2">
+      <c r="A44" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
+      <c r="B44" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" ht="24" spans="1:2">
+      <c r="A45" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="5" t="s">
+      <c r="B45" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" ht="24" spans="1:2">
+      <c r="A46" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="3" t="s">
+      <c r="B46" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" ht="24" spans="1:2">
+      <c r="A47" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="B47" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:2">
+      <c r="A48" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="49" ht="15" spans="1:2">
+      <c r="A49" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
@@ -4154,32 +4896,33 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="15" spans="1:5">
       <c r="A2">
         <v>10.14</v>
       </c>
@@ -4187,7 +4930,7 @@
         <v>10.18</v>
       </c>
       <c r="C2">
-        <v>10.210000000000001</v>
+        <v>10.21</v>
       </c>
       <c r="D2">
         <v>10.27</v>
@@ -4196,159 +4939,159 @@
         <v>10.28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="15" spans="1:5">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" ht="15" spans="1:5">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="18" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" ht="15" spans="1:5">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" ht="15" spans="1:5">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="15" spans="1:5">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" ht="15" spans="1:5">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" ht="15" spans="1:5">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" ht="15" spans="1:4">
+      <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" ht="15" spans="1:4">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" ht="15" spans="1:4">
+      <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="2" t="s">
+    <row r="14" ht="15" spans="4:4">
+      <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="8" t="s">
+    <row r="15" ht="15" spans="4:4">
+      <c r="D15" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="6" t="s">
+    <row r="16" ht="15" spans="4:4">
+      <c r="D16" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="8" t="s">
+    <row r="17" ht="15" spans="4:4">
+      <c r="D17" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="4:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="15" spans="4:4">
       <c r="D18" s="17" t="s">
         <v>36</v>
       </c>
@@ -4357,8 +5100,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/24网络技术3班考勤.xlsx
+++ b/24网络技术3班考勤.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2025\教学\网站设计\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="考勤" sheetId="3" r:id="rId1"/>
     <sheet name="实验报告" sheetId="5" r:id="rId2"/>
     <sheet name="打扫卫生" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="55">
   <si>
     <t>学号</t>
   </si>
@@ -186,14 +191,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,43 +211,43 @@
       <sz val="9"/>
       <color theme="9"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="6" tint="0.399945066682943"/>
+      <color theme="6" tint="0.39991454817346722"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
@@ -259,7 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="6" tint="0.399945066682943"/>
+      <color theme="6" tint="0.39991454817346722"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -272,151 +271,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,194 +303,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -684,257 +360,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -942,9 +374,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,79 +406,37 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1307,44 +694,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="P41" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S42" sqref="S42"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:19">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="23"/>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
       <c r="D2">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E2">
         <v>9.9</v>
@@ -1356,19 +742,19 @@
         <v>9.16</v>
       </c>
       <c r="H2">
-        <v>9.22</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="I2">
         <v>9.23</v>
       </c>
       <c r="J2">
-        <v>9.28</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="K2">
-        <v>9.29</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="L2">
-        <v>10.13</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="M2">
         <v>10.14</v>
@@ -1376,11 +762,11 @@
       <c r="N2">
         <v>10.18</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="19" t="s">
         <v>3</v>
       </c>
       <c r="P2">
-        <v>10.21</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="Q2">
         <v>10.27</v>
@@ -1391,12 +777,15 @@
       <c r="S2">
         <v>11.03</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:19">
-      <c r="A3" s="14">
+      <c r="T2">
+        <v>11.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>2452020005</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -1451,12 +840,15 @@
       <c r="S3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="15" spans="1:19">
-      <c r="A4" s="12">
+      <c r="T3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>2452020012</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C4">
@@ -1511,17 +903,20 @@
       <c r="S4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" ht="15" spans="1:19">
-      <c r="A5" s="14">
+      <c r="T4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>2452020033</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1571,12 +966,15 @@
       <c r="S5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" ht="15" spans="1:19">
-      <c r="A6" s="12">
+      <c r="T5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>2452020048</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C6">
@@ -1631,12 +1029,15 @@
       <c r="S6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" ht="15" spans="1:19">
-      <c r="A7" s="14">
+      <c r="T6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>2452020059</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C7">
@@ -1690,12 +1091,15 @@
       <c r="S7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" ht="15" spans="1:19">
-      <c r="A8" s="12">
+      <c r="T7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>2452020062</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C8">
@@ -1750,12 +1154,15 @@
       <c r="S8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" ht="15" spans="1:19">
-      <c r="A9" s="14">
+      <c r="T8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>2452020068</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C9">
@@ -1810,12 +1217,15 @@
       <c r="S9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" ht="15" spans="1:19">
-      <c r="A10" s="12">
+      <c r="T9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>2452020071</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C10">
@@ -1870,17 +1280,20 @@
       <c r="S10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" ht="15" spans="1:19">
-      <c r="A11" s="24">
+      <c r="T10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
         <v>2452020072</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -1930,12 +1343,15 @@
       <c r="S11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" ht="15" spans="1:19">
-      <c r="A12" s="12">
+      <c r="T11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>2452020091</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C12">
@@ -1990,12 +1406,15 @@
       <c r="S12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" ht="15" spans="1:19">
-      <c r="A13" s="14">
+      <c r="T12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
         <v>2452020094</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C13">
@@ -2050,12 +1469,15 @@
       <c r="S13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" ht="15" spans="1:19">
-      <c r="A14" s="12">
+      <c r="T13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>2452020098</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C14">
@@ -2110,12 +1532,15 @@
       <c r="S14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" ht="15" spans="1:19">
-      <c r="A15" s="14">
+      <c r="T14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
         <v>2452020105</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C15">
@@ -2170,17 +1595,20 @@
       <c r="S15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" ht="15" spans="1:19">
-      <c r="A16" s="12">
+      <c r="T15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>2452020117</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -2230,12 +1658,15 @@
       <c r="S16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" ht="15" spans="1:19">
-      <c r="A17" s="14">
+      <c r="T16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
         <v>2452020132</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C17">
@@ -2290,12 +1721,15 @@
       <c r="S17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" ht="15" spans="1:19">
-      <c r="A18" s="12">
+      <c r="T17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
         <v>2452020133</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C18">
@@ -2350,12 +1784,15 @@
       <c r="S18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" ht="15" spans="1:19">
-      <c r="A19" s="14">
+      <c r="T18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
         <v>2452020143</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C19">
@@ -2410,12 +1847,15 @@
       <c r="S19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" ht="15" spans="1:19">
-      <c r="A20" s="12">
+      <c r="T19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
         <v>2452020164</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C20">
@@ -2470,12 +1910,15 @@
       <c r="S20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" ht="15" spans="1:19">
-      <c r="A21" s="14">
+      <c r="T20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
         <v>2452020176</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C21">
@@ -2530,12 +1973,15 @@
       <c r="S21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" ht="15" spans="1:19">
-      <c r="A22" s="12">
+      <c r="T21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <v>2452020203</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C22">
@@ -2590,12 +2036,15 @@
       <c r="S22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" ht="15" spans="1:19">
-      <c r="A23" s="14">
+      <c r="T22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
         <v>2452020205</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C23">
@@ -2650,12 +2099,15 @@
       <c r="S23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" ht="15" spans="1:19">
-      <c r="A24" s="12">
+      <c r="T23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
         <v>2452020236</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C24">
@@ -2710,17 +2162,20 @@
       <c r="S24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" ht="15" spans="1:19">
-      <c r="A25" s="14">
+      <c r="T24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
         <v>2452020243</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -2770,12 +2225,15 @@
       <c r="S25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" ht="15" spans="1:19">
-      <c r="A26" s="12">
+      <c r="T25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
         <v>2452020253</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C26">
@@ -2830,43 +2288,46 @@
       <c r="S26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" s="22" customFormat="1" ht="15" spans="1:19">
-      <c r="A27" s="16">
+      <c r="T26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
         <v>2452020260</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="17" t="s">
         <v>6</v>
       </c>
       <c r="M27" t="s">
@@ -2890,12 +2351,15 @@
       <c r="S27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" ht="15" spans="1:19">
-      <c r="A28" s="12">
+      <c r="T27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
         <v>2452020278</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C28">
@@ -2950,12 +2414,15 @@
       <c r="S28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" ht="15" spans="1:19">
-      <c r="A29" s="14">
+      <c r="T28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
         <v>2452020293</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C29">
@@ -3010,12 +2477,15 @@
       <c r="S29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" ht="15" spans="1:19">
-      <c r="A30" s="12">
+      <c r="T29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
         <v>2452020297</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C30">
@@ -3070,17 +2540,20 @@
       <c r="S30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" ht="15" spans="1:19">
-      <c r="A31" s="14">
+      <c r="T30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
         <v>2452020298</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -3130,12 +2603,15 @@
       <c r="S31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" ht="15" spans="1:19">
-      <c r="A32" s="12">
+      <c r="T31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
         <v>2452020306</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C32">
@@ -3190,12 +2666,15 @@
       <c r="S32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" ht="15" spans="1:19">
-      <c r="A33" s="14">
+      <c r="T32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
         <v>2452020309</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C33">
@@ -3249,12 +2728,15 @@
       <c r="S33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" ht="15" spans="1:19">
-      <c r="A34" s="12">
+      <c r="T33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
         <v>2452020323</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C34">
@@ -3309,12 +2791,15 @@
       <c r="S34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" ht="15" spans="1:19">
-      <c r="A35" s="14">
+      <c r="T34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
         <v>2452020347</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C35">
@@ -3369,12 +2854,15 @@
       <c r="S35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" ht="15" spans="1:19">
-      <c r="A36" s="12">
+      <c r="T35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
         <v>2452020357</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C36">
@@ -3429,12 +2917,15 @@
       <c r="S36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" ht="15" spans="1:19">
-      <c r="A37" s="14">
+      <c r="T36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
         <v>2452020371</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C37">
@@ -3489,17 +2980,20 @@
       <c r="S37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" ht="15" spans="1:19">
-      <c r="A38" s="12">
+      <c r="T37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
         <v>2452020381</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -3549,12 +3043,15 @@
       <c r="S38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" ht="15" spans="1:19">
-      <c r="A39" s="14">
+      <c r="T38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
         <v>2452020390</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C39">
@@ -3609,17 +3106,20 @@
       <c r="S39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" ht="15" spans="1:19">
-      <c r="A40" s="12">
+      <c r="T39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
         <v>2452020397</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -3667,14 +3167,17 @@
         <v>6</v>
       </c>
       <c r="S40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" ht="15" spans="1:19">
-      <c r="A41" s="14">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
         <v>2452020410</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C41">
@@ -3729,12 +3232,15 @@
       <c r="S41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" ht="15" spans="1:19">
-      <c r="A42" s="12">
+      <c r="T41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
         <v>2452020421</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C42">
@@ -3789,12 +3295,15 @@
       <c r="S42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" ht="15" spans="1:19">
-      <c r="A43" s="14">
+      <c r="T42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
         <v>2452020424</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C43">
@@ -3849,12 +3358,15 @@
       <c r="S43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" ht="15" spans="1:19">
-      <c r="A44" s="12">
+      <c r="T43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
         <v>2452020454</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C44">
@@ -3909,17 +3421,20 @@
       <c r="S44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" ht="15" spans="1:19">
-      <c r="A45" s="14">
+      <c r="T44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
         <v>2452020478</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -3969,12 +3484,15 @@
       <c r="S45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" ht="15" spans="1:19">
-      <c r="A46" s="12">
+      <c r="T45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
         <v>2452020484</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C46">
@@ -4029,17 +3547,20 @@
       <c r="S46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" ht="15" spans="1:19">
-      <c r="A47" s="14">
+      <c r="T46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
         <v>2452020759</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
@@ -4089,12 +3610,15 @@
       <c r="S47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" ht="15" spans="1:19">
-      <c r="A48" s="12">
+      <c r="T47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
         <v>2452020821</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C48">
@@ -4149,17 +3673,20 @@
       <c r="S48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" ht="15" spans="1:19">
-      <c r="A49" s="14">
+      <c r="T48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
         <v>2452020828</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -4209,8 +3736,11 @@
       <c r="S49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" ht="78" customHeight="1" spans="4:64">
+      <c r="T49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:64" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D50">
         <f>COUNTIF(D3:D49,"×")</f>
         <v>5</v>
@@ -4273,200 +3803,200 @@
       </c>
       <c r="S50">
         <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF50">
+      <c r="AG50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG50">
+      <c r="AH50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH50">
+      <c r="AI50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI50">
+      <c r="AJ50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ50">
+      <c r="AK50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK50">
+      <c r="AL50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL50">
+      <c r="AM50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AM50">
+      <c r="AN50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN50">
+      <c r="AO50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO50">
+      <c r="AP50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AP50">
+      <c r="AQ50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ50">
+      <c r="AR50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR50">
+      <c r="AS50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AS50">
+      <c r="AT50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AT50">
+      <c r="AU50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU50">
+      <c r="AV50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AV50">
+      <c r="AW50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AW50">
+      <c r="AX50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AX50">
+      <c r="AY50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AY50">
+      <c r="AZ50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AZ50">
+      <c r="BA50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BA50">
+      <c r="BB50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BB50">
+      <c r="BC50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BC50">
+      <c r="BD50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BD50">
+      <c r="BE50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BE50">
+      <c r="BF50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BF50">
+      <c r="BG50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BG50">
+      <c r="BH50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BH50">
+      <c r="BI50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BI50">
+      <c r="BJ50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BJ50">
+      <c r="BK50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BK50">
+      <c r="BL50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BL50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" ht="30" spans="8:15">
-      <c r="H52" s="25" t="s">
+    </row>
+    <row r="52" spans="1:64" ht="30" x14ac:dyDescent="0.4">
+      <c r="H52" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4475,7 +4005,8 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C$1:C$1048576">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percentile" val="20"/>
@@ -4486,406 +4017,404 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="15">
         <v>45958</v>
       </c>
     </row>
-    <row r="3" ht="24.75" spans="1:2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="24" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" ht="24" spans="1:2">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="24" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:2">
-      <c r="A7" s="14" t="s">
+      <c r="B6" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:2">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:2">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="24" spans="1:2">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" ht="24" spans="1:2">
-      <c r="A11" s="15" t="s">
+      <c r="B10" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="B11" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:2">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:2">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:2">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" ht="24" spans="1:2">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:2">
-      <c r="A17" s="14" t="s">
+      <c r="B16" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:2">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" ht="24" spans="1:2">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" ht="15" spans="1:2">
-      <c r="A20" s="12" t="s">
+      <c r="B19" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:2">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:2">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:2">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" ht="24" spans="1:2">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" ht="24" spans="1:2">
-      <c r="A25" s="14" t="s">
+      <c r="B24" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" ht="24" spans="1:2">
-      <c r="A26" s="12" t="s">
+      <c r="B25" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" ht="24" spans="1:2">
-      <c r="A27" s="16" t="s">
+      <c r="B26" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:2">
-      <c r="A28" s="12" t="s">
+      <c r="B27" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:2">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" ht="24" spans="1:2">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" ht="24" spans="1:2">
-      <c r="A31" s="14" t="s">
+      <c r="B30" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" ht="24" spans="1:2">
-      <c r="A32" s="12" t="s">
+      <c r="B31" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" ht="24" spans="1:2">
-      <c r="A33" s="14" t="s">
+      <c r="B32" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" ht="24" spans="1:2">
-      <c r="A34" s="12" t="s">
+      <c r="B33" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" ht="24" spans="1:2">
-      <c r="A35" s="14" t="s">
+      <c r="B34" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="1:2">
-      <c r="A36" s="12" t="s">
+      <c r="B35" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:2">
-      <c r="A37" s="14" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" ht="24" spans="1:2">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" ht="24" spans="1:2">
-      <c r="A39" s="14" t="s">
+      <c r="B38" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" ht="24" spans="1:2">
-      <c r="A40" s="12" t="s">
+      <c r="B39" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" ht="15" spans="1:2">
-      <c r="A41" s="14" t="s">
+      <c r="B40" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" ht="24" spans="1:2">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A42" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" ht="15" spans="1:2">
-      <c r="A43" s="14" t="s">
+      <c r="B42" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" ht="24" spans="1:2">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A44" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" ht="24" spans="1:2">
-      <c r="A45" s="14" t="s">
+      <c r="B44" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" ht="24" spans="1:2">
-      <c r="A46" s="12" t="s">
+      <c r="B45" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A46" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" ht="24" spans="1:2">
-      <c r="A47" s="14" t="s">
+      <c r="B46" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" ht="15" spans="1:2">
-      <c r="A48" s="12" t="s">
+      <c r="B47" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" ht="15" spans="1:2">
-      <c r="A49" s="14" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
@@ -4896,33 +4425,32 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="15" spans="1:5">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10.14</v>
       </c>
@@ -4930,7 +4458,7 @@
         <v>10.18</v>
       </c>
       <c r="C2">
-        <v>10.21</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="D2">
         <v>10.27</v>
@@ -4938,161 +4466,179 @@
       <c r="E2">
         <v>10.28</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="F2">
+        <v>11.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" ht="15" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="F3" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" ht="15" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="F4" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" ht="15" spans="1:5">
-      <c r="A6" s="8" t="s">
+      <c r="F5" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" ht="15" spans="1:5">
-      <c r="A7" s="11" t="s">
+      <c r="F6" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" ht="15" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:5">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:5">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:4">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:4">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:4">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="4:4">
-      <c r="D14" s="4" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="4:4">
-      <c r="D15" s="13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="4:4">
-      <c r="D16" s="10" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="4:4">
-      <c r="D17" s="13" t="s">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="4:4">
-      <c r="D18" s="17" t="s">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5100,8 +4646,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/24网络技术3班考勤.xlsx
+++ b/24网络技术3班考勤.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="考勤" sheetId="3" r:id="rId1"/>
-    <sheet name="实验报告" sheetId="5" r:id="rId2"/>
-    <sheet name="打扫卫生" sheetId="4" r:id="rId3"/>
+    <sheet name="上机" sheetId="6" r:id="rId2"/>
+    <sheet name="实验报告" sheetId="5" r:id="rId3"/>
+    <sheet name="打扫卫生" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="55">
   <si>
     <t>学号</t>
   </si>
@@ -210,12 +211,6 @@
     <font>
       <sz val="9"/>
       <color theme="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -245,7 +240,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="6" tint="0.39991454817346722"/>
+      <color theme="6" tint="0.39988402966399123"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -258,7 +253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="6" tint="0.39991454817346722"/>
+      <color theme="6" tint="0.39988402966399123"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -274,6 +269,12 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -364,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -373,52 +374,46 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -702,11 +697,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="R44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -714,21 +709,21 @@
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
       <c r="D2">
         <v>9.8000000000000007</v>
       </c>
@@ -762,7 +757,7 @@
       <c r="N2">
         <v>10.18</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="P2">
@@ -780,12 +775,18 @@
       <c r="T2">
         <v>11.04</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="U2">
+        <v>11.05</v>
+      </c>
+      <c r="V2">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>2452020005</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -843,8 +844,14 @@
       <c r="T3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2452020012</v>
       </c>
@@ -906,17 +913,23 @@
       <c r="T4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="U4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>2452020033</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -969,8 +982,14 @@
       <c r="T5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2452020048</v>
       </c>
@@ -1032,12 +1051,18 @@
       <c r="T6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="U6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>2452020059</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C7">
@@ -1094,8 +1119,14 @@
       <c r="T7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" t="s">
+        <v>5</v>
+      </c>
+      <c r="V7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>2452020062</v>
       </c>
@@ -1157,12 +1188,18 @@
       <c r="T8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="U8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>2452020068</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C9">
@@ -1220,8 +1257,14 @@
       <c r="T9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2452020071</v>
       </c>
@@ -1283,17 +1326,23 @@
       <c r="T10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="U10" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
         <v>2452020072</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -1346,8 +1395,14 @@
       <c r="T11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" t="s">
+        <v>6</v>
+      </c>
+      <c r="V11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>2452020091</v>
       </c>
@@ -1409,12 +1464,18 @@
       <c r="T12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="U12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>2452020094</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C13">
@@ -1472,8 +1533,14 @@
       <c r="T13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" t="s">
+        <v>5</v>
+      </c>
+      <c r="V13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>2452020098</v>
       </c>
@@ -1535,12 +1602,18 @@
       <c r="T14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+      <c r="U14" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>2452020105</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C15">
@@ -1598,8 +1671,14 @@
       <c r="T15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>2452020117</v>
       </c>
@@ -1608,7 +1687,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -1661,12 +1740,18 @@
       <c r="T16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+      <c r="U16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
         <v>2452020132</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C17">
@@ -1724,8 +1809,14 @@
       <c r="T17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U17" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>2452020133</v>
       </c>
@@ -1787,12 +1878,18 @@
       <c r="T18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
+      <c r="U18" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
         <v>2452020143</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C19">
@@ -1850,8 +1947,14 @@
       <c r="T19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19" t="s">
+        <v>5</v>
+      </c>
+      <c r="V19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>2452020164</v>
       </c>
@@ -1913,12 +2016,18 @@
       <c r="T20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
+      <c r="U20" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
         <v>2452020176</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C21">
@@ -1976,8 +2085,14 @@
       <c r="T21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U21" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>2452020203</v>
       </c>
@@ -2039,12 +2154,18 @@
       <c r="T22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
+      <c r="U22" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
         <v>2452020205</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C23">
@@ -2102,8 +2223,14 @@
       <c r="T23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U23" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>2452020236</v>
       </c>
@@ -2165,17 +2292,23 @@
       <c r="T24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+      <c r="U24" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
         <v>2452020243</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -2228,8 +2361,14 @@
       <c r="T25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>2452020253</v>
       </c>
@@ -2238,7 +2377,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -2291,43 +2430,49 @@
       <c r="T26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="U26" t="s">
+        <v>6</v>
+      </c>
+      <c r="V26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
         <v>2452020260</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="15" t="s">
         <v>6</v>
       </c>
       <c r="M27" t="s">
@@ -2354,8 +2499,14 @@
       <c r="T27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>2452020278</v>
       </c>
@@ -2417,12 +2568,18 @@
       <c r="T28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+      <c r="U28" t="s">
+        <v>5</v>
+      </c>
+      <c r="V28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
         <v>2452020293</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C29">
@@ -2480,8 +2637,14 @@
       <c r="T29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U29" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>2452020297</v>
       </c>
@@ -2490,7 +2653,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -2543,17 +2706,23 @@
       <c r="T30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+      <c r="U30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
         <v>2452020298</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -2606,8 +2775,14 @@
       <c r="T31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U31" t="s">
+        <v>6</v>
+      </c>
+      <c r="V31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>2452020306</v>
       </c>
@@ -2669,12 +2844,18 @@
       <c r="T32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
+      <c r="U32" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
         <v>2452020309</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C33">
@@ -2731,8 +2912,14 @@
       <c r="T33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U33" t="s">
+        <v>5</v>
+      </c>
+      <c r="V33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>2452020323</v>
       </c>
@@ -2741,7 +2928,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -2794,12 +2981,18 @@
       <c r="T34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+      <c r="U34" t="s">
+        <v>6</v>
+      </c>
+      <c r="V34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
         <v>2452020347</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C35">
@@ -2857,8 +3050,14 @@
       <c r="T35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U35" t="s">
+        <v>5</v>
+      </c>
+      <c r="V35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>2452020357</v>
       </c>
@@ -2920,17 +3119,23 @@
       <c r="T36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
+      <c r="U36" t="s">
+        <v>5</v>
+      </c>
+      <c r="V36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
         <v>2452020371</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -2983,8 +3188,14 @@
       <c r="T37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U37" t="s">
+        <v>6</v>
+      </c>
+      <c r="V37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>2452020381</v>
       </c>
@@ -2993,7 +3204,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -3046,17 +3257,23 @@
       <c r="T38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
+      <c r="U38" t="s">
+        <v>6</v>
+      </c>
+      <c r="V38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
         <v>2452020390</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -3109,8 +3326,14 @@
       <c r="T39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U39" t="s">
+        <v>6</v>
+      </c>
+      <c r="V39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>2452020397</v>
       </c>
@@ -3172,12 +3395,18 @@
       <c r="T40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="11">
+      <c r="U40" t="s">
+        <v>5</v>
+      </c>
+      <c r="V40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
         <v>2452020410</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C41">
@@ -3235,8 +3464,14 @@
       <c r="T41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U41" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>2452020421</v>
       </c>
@@ -3245,7 +3480,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -3298,12 +3533,18 @@
       <c r="T42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="11">
+      <c r="U42" t="s">
+        <v>6</v>
+      </c>
+      <c r="V42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
         <v>2452020424</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C43">
@@ -3361,8 +3602,14 @@
       <c r="T43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U43" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>2452020454</v>
       </c>
@@ -3424,17 +3671,23 @@
       <c r="T44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="11">
+      <c r="U44" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
         <v>2452020478</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -3487,8 +3740,14 @@
       <c r="T45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U45" t="s">
+        <v>6</v>
+      </c>
+      <c r="V45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>2452020484</v>
       </c>
@@ -3550,17 +3809,23 @@
       <c r="T46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="11">
+      <c r="U46" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
         <v>2452020759</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
@@ -3613,8 +3878,14 @@
       <c r="T47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U47" t="s">
+        <v>6</v>
+      </c>
+      <c r="V47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>2452020821</v>
       </c>
@@ -3676,12 +3947,18 @@
       <c r="T48" t="s">
         <v>5</v>
       </c>
+      <c r="U48" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A49" s="11">
+      <c r="A49" s="10">
         <v>2452020828</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C49">
@@ -3739,6 +4016,12 @@
       <c r="T49" t="s">
         <v>6</v>
       </c>
+      <c r="U49" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" spans="1:64" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D50">
@@ -3811,11 +4094,11 @@
       </c>
       <c r="U50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W50">
         <f t="shared" si="2"/>
@@ -3987,16 +4270,16 @@
       </c>
     </row>
     <row r="52" spans="1:64" ht="30" x14ac:dyDescent="0.4">
-      <c r="H52" s="20" t="s">
+      <c r="H52" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4005,7 +4288,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -4023,6 +4306,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
@@ -4035,21 +4331,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="15">
+      <c r="A2" s="21"/>
+      <c r="B2" s="13">
         <v>45958</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4057,15 +4353,15 @@
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4073,12 +4369,12 @@
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
@@ -4094,7 +4390,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
@@ -4105,15 +4401,15 @@
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4126,7 +4422,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
@@ -4142,7 +4438,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
@@ -4153,12 +4449,12 @@
       <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
@@ -4174,10 +4470,10 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4190,7 +4486,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
@@ -4206,7 +4502,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
@@ -4217,15 +4513,15 @@
       <c r="A24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4233,15 +4529,15 @@
       <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4254,7 +4550,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B29" t="s">
@@ -4265,15 +4561,15 @@
       <c r="A30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4281,15 +4577,15 @@
       <c r="A32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4297,15 +4593,15 @@
       <c r="A34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4318,7 +4614,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B37" t="s">
@@ -4329,15 +4625,15 @@
       <c r="A38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4345,12 +4641,12 @@
       <c r="A40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B41" t="s">
@@ -4361,12 +4657,12 @@
       <c r="A42" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B43" t="s">
@@ -4377,15 +4673,15 @@
       <c r="A44" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4393,15 +4689,15 @@
       <c r="A46" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4414,7 +4710,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
@@ -4425,32 +4721,32 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10.14</v>
       </c>
@@ -4469,8 +4765,11 @@
       <c r="F2">
         <v>11.04</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4480,17 +4779,20 @@
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -4500,15 +4802,18 @@
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -4522,29 +4827,35 @@
       <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -4553,11 +4864,14 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -4570,8 +4884,11 @@
       <c r="E8" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -4582,7 +4899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -4593,23 +4910,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -4617,17 +4934,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D15" s="10" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D16" s="7" t="s">
         <v>34</v>
       </c>
@@ -4638,7 +4955,7 @@
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4646,8 +4963,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/24网络技术3班考勤.xlsx
+++ b/24网络技术3班考勤.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="考勤" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="56">
   <si>
     <t>学号</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>10.20</t>
+  </si>
+  <si>
+    <t>11.17第二节期中考试</t>
   </si>
   <si>
     <t>李奥</t>
@@ -216,7 +219,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -228,7 +231,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -240,7 +243,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="6" tint="0.39988402966399123"/>
+      <color theme="6" tint="0.39985351115451523"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -253,7 +256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="6" tint="0.39988402966399123"/>
+      <color theme="6" tint="0.39985351115451523"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -274,9 +277,8 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -365,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -374,16 +376,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,6 +410,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -420,6 +425,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -697,11 +705,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="R44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="V8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V44" sqref="V44"/>
+      <selection pane="bottomRight" activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -709,21 +717,21 @@
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2">
         <v>9.8000000000000007</v>
       </c>
@@ -781,3177 +789,3459 @@
       <c r="V2">
         <v>11.11</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2452020005</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <f>100-COUNTIF(D3:Z3,"×")*3</f>
         <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2452020012</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C49" si="0">100-COUNTIF(D4:Z4,"×")*3</f>
         <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>2452020033</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="W5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2452020048</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>2452020059</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>2452020062</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>2452020068</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2452020071</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W10" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>2452020072</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="W11" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>2452020091</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>2452020094</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W13" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>2452020098</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W14" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>2452020105</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W15" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>2452020117</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="W16" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>2452020132</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W17" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>2452020133</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W18" t="s">
+        <v>6</v>
+      </c>
+      <c r="X18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>2452020143</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W19" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>2452020164</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W20" t="s">
+        <v>6</v>
+      </c>
+      <c r="X20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>2452020176</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W21" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>2452020203</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W22" t="s">
+        <v>6</v>
+      </c>
+      <c r="X22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>2452020205</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W23" t="s">
+        <v>6</v>
+      </c>
+      <c r="X23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>2452020236</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W24" t="s">
+        <v>6</v>
+      </c>
+      <c r="X24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>2452020243</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="W25" t="s">
+        <v>7</v>
+      </c>
+      <c r="X25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>2452020253</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="W26" t="s">
+        <v>7</v>
+      </c>
+      <c r="X26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>2452020260</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="W27" t="s">
+        <v>7</v>
+      </c>
+      <c r="X27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>2452020278</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W28" t="s">
+        <v>6</v>
+      </c>
+      <c r="X28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>2452020293</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W29" t="s">
+        <v>6</v>
+      </c>
+      <c r="X29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>2452020297</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>2452020298</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W31" t="s">
+        <v>6</v>
+      </c>
+      <c r="X31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>2452020306</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W32" t="s">
+        <v>6</v>
+      </c>
+      <c r="X32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>2452020309</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W33" t="s">
+        <v>6</v>
+      </c>
+      <c r="X33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>2452020323</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W34" t="s">
+        <v>6</v>
+      </c>
+      <c r="X34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>2452020347</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W35" t="s">
+        <v>6</v>
+      </c>
+      <c r="X35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>2452020357</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W36" t="s">
+        <v>6</v>
+      </c>
+      <c r="X36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>2452020371</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W37" t="s">
+        <v>6</v>
+      </c>
+      <c r="X37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>2452020381</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="W38" t="s">
+        <v>7</v>
+      </c>
+      <c r="X38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>2452020390</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W39" t="s">
+        <v>6</v>
+      </c>
+      <c r="X39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>2452020397</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W40" t="s">
+        <v>6</v>
+      </c>
+      <c r="X40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>2452020410</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W41" t="s">
+        <v>6</v>
+      </c>
+      <c r="X41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>2452020421</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W42" t="s">
+        <v>6</v>
+      </c>
+      <c r="X42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>2452020424</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W43" t="s">
+        <v>6</v>
+      </c>
+      <c r="X43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>2452020454</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W44" t="s">
+        <v>6</v>
+      </c>
+      <c r="X44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>2452020478</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="W45" t="s">
+        <v>7</v>
+      </c>
+      <c r="X45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>2452020484</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="W46" t="s">
+        <v>6</v>
+      </c>
+      <c r="X46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>2452020759</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="W47" t="s">
+        <v>7</v>
+      </c>
+      <c r="X47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>2452020821</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V48" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="W48" t="s">
+        <v>6</v>
+      </c>
+      <c r="X48" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:64" x14ac:dyDescent="0.2">
@@ -3959,68 +4249,74 @@
         <v>2452020828</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V49" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="W49" t="s">
+        <v>6</v>
+      </c>
+      <c r="X49" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:64" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -4101,12 +4397,12 @@
         <v>9</v>
       </c>
       <c r="W50">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>COUNTIF(W4:W49,"×")</f>
+        <v>9</v>
       </c>
       <c r="X50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y50">
         <f t="shared" si="2"/>
@@ -4270,16 +4566,16 @@
       </c>
     </row>
     <row r="52" spans="1:64" ht="30" x14ac:dyDescent="0.4">
-      <c r="H52" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
+      <c r="H52" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4308,11 +4604,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4331,390 +4627,390 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="13">
         <v>45958</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4729,24 +5025,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10.14</v>
       </c>
@@ -4768,195 +5064,217 @@
       <c r="G2">
         <v>11.11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="6" t="s">
-        <v>37</v>
+      <c r="E6" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4965,6 +5283,6 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/24网络技术3班考勤.xlsx
+++ b/24网络技术3班考勤.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="考勤" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="56">
   <si>
     <t>学号</t>
   </si>
@@ -243,7 +243,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="6" tint="0.39985351115451523"/>
+      <color theme="6" tint="0.39976195562608724"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -256,7 +256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="6" tint="0.39985351115451523"/>
+      <color theme="6" tint="0.39976195562608724"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -271,14 +271,15 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -397,6 +398,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -410,9 +414,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -425,9 +427,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -706,10 +705,10 @@
   <dimension ref="A1:BL52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="V8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="AA8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X9" sqref="X9"/>
+      <selection pane="bottomRight" activeCell="AD50" sqref="AD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -717,21 +716,21 @@
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
       <c r="D2">
         <v>9.8000000000000007</v>
       </c>
@@ -765,7 +764,7 @@
       <c r="N2">
         <v>10.18</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="18" t="s">
         <v>3</v>
       </c>
       <c r="P2">
@@ -795,8 +794,26 @@
       <c r="X2">
         <v>11.18</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y2">
+        <v>11.24</v>
+      </c>
+      <c r="Z2">
+        <v>11.25</v>
+      </c>
+      <c r="AA2">
+        <v>12.01</v>
+      </c>
+      <c r="AB2">
+        <v>12.02</v>
+      </c>
+      <c r="AC2">
+        <v>12.08</v>
+      </c>
+      <c r="AD2">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2452020005</v>
       </c>
@@ -804,8 +821,8 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <f>100-COUNTIF(D3:Z3,"×")*3</f>
-        <v>94</v>
+        <f>100-COUNTIF(D3:AZ3,"×")*3</f>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -870,8 +887,26 @@
       <c r="X3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2452020012</v>
       </c>
@@ -879,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C49" si="0">100-COUNTIF(D4:Z4,"×")*3</f>
+        <f t="shared" ref="C4:C23" si="0">100-COUNTIF(D4:AZ4,"×")*3</f>
         <v>91</v>
       </c>
       <c r="D4" t="s">
@@ -945,8 +980,26 @@
       <c r="X4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>2452020033</v>
       </c>
@@ -955,7 +1008,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -1020,8 +1073,26 @@
       <c r="X5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2452020048</v>
       </c>
@@ -1030,7 +1101,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -1095,8 +1166,26 @@
       <c r="X6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>2452020059</v>
       </c>
@@ -1104,7 +1193,8 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <f>110-COUNTIF(D7:AZ7,"×")*3</f>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -1169,8 +1259,26 @@
       <c r="X7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>2452020062</v>
       </c>
@@ -1244,8 +1352,26 @@
       <c r="X8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>2452020068</v>
       </c>
@@ -1319,8 +1445,26 @@
       <c r="X9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2452020071</v>
       </c>
@@ -1394,17 +1538,35 @@
       <c r="X10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+      <c r="Y10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
         <v>2452020072</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1469,8 +1631,26 @@
       <c r="X11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>2452020091</v>
       </c>
@@ -1544,8 +1724,26 @@
       <c r="X12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>2452020094</v>
       </c>
@@ -1619,8 +1817,26 @@
       <c r="X13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>2452020098</v>
       </c>
@@ -1694,8 +1910,26 @@
       <c r="X14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>2452020105</v>
       </c>
@@ -1769,8 +2003,26 @@
       <c r="X15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>2452020117</v>
       </c>
@@ -1779,7 +2031,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -1844,8 +2096,26 @@
       <c r="X16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>2452020132</v>
       </c>
@@ -1919,8 +2189,26 @@
       <c r="X17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>2452020133</v>
       </c>
@@ -1929,7 +2217,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -1994,8 +2282,26 @@
       <c r="X18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>2452020143</v>
       </c>
@@ -2004,7 +2310,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -2069,8 +2375,26 @@
       <c r="X19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y19" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>2452020164</v>
       </c>
@@ -2144,8 +2468,26 @@
       <c r="X20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>2452020176</v>
       </c>
@@ -2219,8 +2561,26 @@
       <c r="X21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>2452020203</v>
       </c>
@@ -2294,8 +2654,26 @@
       <c r="X22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>2452020205</v>
       </c>
@@ -2304,7 +2682,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -2369,8 +2747,26 @@
       <c r="X23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>2452020236</v>
       </c>
@@ -2378,8 +2774,8 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>88</v>
+        <f t="shared" ref="C24:C49" si="1">100-COUNTIF(D24:AZ24,"×")*3</f>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -2444,8 +2840,26 @@
       <c r="X24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>2452020243</v>
       </c>
@@ -2453,8 +2867,8 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -2519,8 +2933,26 @@
       <c r="X25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y25" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>2452020253</v>
       </c>
@@ -2528,8 +2960,8 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
@@ -2594,43 +3026,61 @@
       <c r="X26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="Y26" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
         <v>2452020260</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27" s="15" t="s">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="16" t="s">
         <v>7</v>
       </c>
       <c r="M27" t="s">
@@ -2669,8 +3119,26 @@
       <c r="X27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y27" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>2452020278</v>
       </c>
@@ -2678,7 +3146,7 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D28" t="s">
@@ -2744,8 +3212,26 @@
       <c r="X28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>2452020293</v>
       </c>
@@ -2753,7 +3239,7 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D29" t="s">
@@ -2819,8 +3305,26 @@
       <c r="X29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>2452020297</v>
       </c>
@@ -2828,8 +3332,8 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
@@ -2894,8 +3398,26 @@
       <c r="X30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>2452020298</v>
       </c>
@@ -2903,8 +3425,8 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
@@ -2969,8 +3491,26 @@
       <c r="X31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>2452020306</v>
       </c>
@@ -2978,8 +3518,8 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
@@ -3044,8 +3584,26 @@
       <c r="X32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y32" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>2452020309</v>
       </c>
@@ -3053,7 +3611,8 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>95</v>
+        <f>110-COUNTIF(D33:AZ33,"×")*3</f>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
@@ -3118,8 +3677,26 @@
       <c r="X33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y33" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>2452020323</v>
       </c>
@@ -3127,8 +3704,8 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
@@ -3193,8 +3770,26 @@
       <c r="X34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y34" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>2452020347</v>
       </c>
@@ -3202,8 +3797,8 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>88</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
@@ -3268,8 +3863,26 @@
       <c r="X35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>2452020357</v>
       </c>
@@ -3277,8 +3890,8 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
@@ -3343,8 +3956,26 @@
       <c r="X36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y36" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>2452020371</v>
       </c>
@@ -3352,8 +3983,8 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
@@ -3418,8 +4049,26 @@
       <c r="X37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y37" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>2452020381</v>
       </c>
@@ -3427,8 +4076,8 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
@@ -3493,8 +4142,26 @@
       <c r="X38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y38" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>2452020390</v>
       </c>
@@ -3502,8 +4169,8 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
@@ -3568,8 +4235,26 @@
       <c r="X39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y39" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>2452020397</v>
       </c>
@@ -3577,8 +4262,8 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
-        <v>88</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
@@ -3643,8 +4328,26 @@
       <c r="X40" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y40" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>2452020410</v>
       </c>
@@ -3652,7 +4355,7 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="D41" t="s">
@@ -3718,8 +4421,26 @@
       <c r="X41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>2452020421</v>
       </c>
@@ -3727,8 +4448,8 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
@@ -3793,8 +4514,26 @@
       <c r="X42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y42" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>2452020424</v>
       </c>
@@ -3802,8 +4541,8 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
-        <v>97</v>
+        <f t="shared" si="1"/>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
@@ -3868,8 +4607,26 @@
       <c r="X43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y43" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>2452020454</v>
       </c>
@@ -3877,7 +4634,7 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="D44" t="s">
@@ -3943,8 +4700,26 @@
       <c r="X44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>2452020478</v>
       </c>
@@ -3952,8 +4727,8 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -4018,8 +4793,26 @@
       <c r="X45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y45" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>2452020484</v>
       </c>
@@ -4027,8 +4820,8 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
@@ -4093,8 +4886,26 @@
       <c r="X46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y46" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>2452020759</v>
       </c>
@@ -4102,8 +4913,8 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -4168,8 +4979,26 @@
       <c r="X47" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y47" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>2452020821</v>
       </c>
@@ -4177,8 +5006,8 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
@@ -4241,6 +5070,24 @@
         <v>6</v>
       </c>
       <c r="X48" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD48" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4252,8 +5099,8 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
@@ -4317,6 +5164,24 @@
       </c>
       <c r="X49" t="s">
         <v>7</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:64" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -4325,75 +5190,75 @@
         <v>5</v>
       </c>
       <c r="E50">
-        <f t="shared" ref="E50:O50" si="1">COUNTIF(E3:E49,"×")</f>
+        <f t="shared" ref="E50:O50" si="2">COUNTIF(E3:E49,"×")</f>
         <v>4</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="H50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="K50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="L50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="M50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="N50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="O50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="P50">
-        <f t="shared" ref="P50:BL50" si="2">COUNTIF(P3:P49,"×")</f>
+        <f t="shared" ref="P50:BL50" si="3">COUNTIF(P3:P49,"×")</f>
         <v>15</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="R50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="S50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="T50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="U50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="V50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="W50">
@@ -4401,181 +5266,181 @@
         <v>9</v>
       </c>
       <c r="X50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z50">
-        <f t="shared" si="2"/>
+      <c r="AF50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA50">
-        <f t="shared" si="2"/>
+      <c r="AG50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB50">
-        <f t="shared" si="2"/>
+      <c r="AH50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC50">
-        <f t="shared" si="2"/>
+      <c r="AI50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD50">
-        <f t="shared" si="2"/>
+      <c r="AJ50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE50">
-        <f t="shared" si="2"/>
+      <c r="AK50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF50">
-        <f t="shared" si="2"/>
+      <c r="AL50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG50">
-        <f t="shared" si="2"/>
+      <c r="AM50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH50">
-        <f t="shared" si="2"/>
+      <c r="AN50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI50">
-        <f t="shared" si="2"/>
+      <c r="AO50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ50">
-        <f t="shared" si="2"/>
+      <c r="AP50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AK50">
-        <f t="shared" si="2"/>
+      <c r="AQ50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL50">
-        <f t="shared" si="2"/>
+      <c r="AR50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AM50">
-        <f t="shared" si="2"/>
+      <c r="AS50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AN50">
-        <f t="shared" si="2"/>
+      <c r="AT50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AO50">
-        <f t="shared" si="2"/>
+      <c r="AU50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP50">
-        <f t="shared" si="2"/>
+      <c r="AV50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AQ50">
-        <f t="shared" si="2"/>
+      <c r="AW50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AR50">
-        <f t="shared" si="2"/>
+      <c r="AX50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AS50">
-        <f t="shared" si="2"/>
+      <c r="AY50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT50">
-        <f t="shared" si="2"/>
+      <c r="AZ50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU50">
-        <f t="shared" si="2"/>
+      <c r="BA50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV50">
-        <f t="shared" si="2"/>
+      <c r="BB50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AW50">
-        <f t="shared" si="2"/>
+      <c r="BC50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AX50">
-        <f t="shared" si="2"/>
+      <c r="BD50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AY50">
-        <f t="shared" si="2"/>
+      <c r="BE50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AZ50">
-        <f t="shared" si="2"/>
+      <c r="BF50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BA50">
-        <f t="shared" si="2"/>
+      <c r="BG50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BB50">
-        <f t="shared" si="2"/>
+      <c r="BH50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BC50">
-        <f t="shared" si="2"/>
+      <c r="BI50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BD50">
-        <f t="shared" si="2"/>
+      <c r="BJ50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BE50">
-        <f t="shared" si="2"/>
+      <c r="BK50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BF50">
-        <f t="shared" si="2"/>
+      <c r="BL50">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BG50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BH50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BI50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BJ50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BK50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BL50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="52" spans="1:64" ht="30" x14ac:dyDescent="0.4">
-      <c r="H52" s="19" t="s">
+      <c r="H52" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4608,408 +5473,553 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="13">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="14">
         <v>45958</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C2" s="14">
+        <v>45986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C9" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="B10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C15" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C18" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+      <c r="B26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C37" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C41" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5017,7 +6027,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -5025,24 +6035,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10.14</v>
       </c>
@@ -5067,8 +6077,17 @@
       <c r="H2">
         <v>11.18</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>11.25</v>
+      </c>
+      <c r="J2">
+        <v>12.02</v>
+      </c>
+      <c r="K2">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -5090,11 +6109,20 @@
       <c r="G3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -5117,8 +6145,17 @@
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -5138,11 +6175,20 @@
       <c r="G5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -5162,11 +6208,20 @@
       <c r="G6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -5181,11 +6236,20 @@
       <c r="G7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -5202,8 +6266,14 @@
         <v>5</v>
       </c>
       <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -5213,9 +6283,15 @@
       <c r="E9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="11"/>
+      <c r="J9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -5225,64 +6301,156 @@
       <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="H10" s="12"/>
+      <c r="K10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K13" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K14" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K15" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D16" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="K16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="K17" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K30" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/24网络技术3班考勤.xlsx
+++ b/24网络技术3班考勤.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2025\教学\网站设计\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="考勤" sheetId="3" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="实验报告" sheetId="5" r:id="rId3"/>
     <sheet name="打扫卫生" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="84">
   <si>
     <t>学号</t>
   </si>
@@ -33,10 +28,113 @@
     <t>成绩</t>
   </si>
   <si>
-    <t>10.20</t>
-  </si>
-  <si>
-    <t>11.17第二节期中考试</t>
+    <t>9.8-理论</t>
+  </si>
+  <si>
+    <t>9.9-理论</t>
+  </si>
+  <si>
+    <t>9.15-理论</t>
+  </si>
+  <si>
+    <t>9.16-理论</t>
+  </si>
+  <si>
+    <t>9.22-理论</t>
+  </si>
+  <si>
+    <t>9.23-实验</t>
+  </si>
+  <si>
+    <t>9.28-实验</t>
+  </si>
+  <si>
+    <t>9.29-理论</t>
+  </si>
+  <si>
+    <t>10.13-实验</t>
+  </si>
+  <si>
+    <t>10.14-实验</t>
+  </si>
+  <si>
+    <t>10.18-实验</t>
+  </si>
+  <si>
+    <t>10.20-理论</t>
+  </si>
+  <si>
+    <t>10.21-实验</t>
+  </si>
+  <si>
+    <t>10.27-实验</t>
+  </si>
+  <si>
+    <t>10.28-实验</t>
+  </si>
+  <si>
+    <t>11.03-理论</t>
+  </si>
+  <si>
+    <t>11.04-实验</t>
+  </si>
+  <si>
+    <t>11.05-理论（调课-上海培训）</t>
+  </si>
+  <si>
+    <t>11.11-实验</t>
+  </si>
+  <si>
+    <t>11.17-理论-第二节期中考试</t>
+  </si>
+  <si>
+    <t>11.18-实验</t>
+  </si>
+  <si>
+    <t>11.24-理论</t>
+  </si>
+  <si>
+    <t>11.25-实验</t>
+  </si>
+  <si>
+    <t>12.01-理论</t>
+  </si>
+  <si>
+    <t>12.02-实验</t>
+  </si>
+  <si>
+    <t>12.08-理论</t>
+  </si>
+  <si>
+    <t>12.09-实验</t>
+  </si>
+  <si>
+    <t>12.15-理论</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.16-实验</t>
+    </r>
+  </si>
+  <si>
+    <t>12.22-理论</t>
   </si>
   <si>
     <t>李奥</t>
@@ -195,8 +293,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,37 +319,37 @@
       <sz val="9"/>
       <color theme="9"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="6" tint="0.39976195562608724"/>
+      <color theme="6" tint="0.399731437116611"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
@@ -256,7 +360,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="6" tint="0.39976195562608724"/>
+      <color theme="6" tint="0.399731437116611"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -269,20 +373,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,8 +549,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -364,13 +792,257 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -407,38 +1079,81 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -696,4495 +1411,4928 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BL52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <pane xSplit="4" ySplit="7" topLeftCell="AA8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="4" ySplit="7" topLeftCell="AF30" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD50" sqref="AD50"/>
+      <selection pane="bottomRight" activeCell="AG33" sqref="AG33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E2">
-        <v>9.9</v>
-      </c>
-      <c r="F2">
-        <v>9.15</v>
-      </c>
-      <c r="G2">
-        <v>9.16</v>
-      </c>
-      <c r="H2">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="I2">
-        <v>9.23</v>
-      </c>
-      <c r="J2">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="K2">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="L2">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="M2">
-        <v>10.14</v>
-      </c>
-      <c r="N2">
-        <v>10.18</v>
-      </c>
-      <c r="O2" s="18" t="s">
+    <row r="2" ht="15" spans="1:33">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="P2">
-        <v>10.210000000000001</v>
-      </c>
-      <c r="Q2">
-        <v>10.27</v>
-      </c>
-      <c r="R2">
-        <v>10.28</v>
-      </c>
-      <c r="S2">
-        <v>11.03</v>
-      </c>
-      <c r="T2">
-        <v>11.04</v>
-      </c>
-      <c r="U2">
-        <v>11.05</v>
-      </c>
-      <c r="V2">
-        <v>11.11</v>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
       </c>
       <c r="W2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2">
-        <v>11.18</v>
-      </c>
-      <c r="Y2">
-        <v>11.24</v>
-      </c>
-      <c r="Z2">
-        <v>11.25</v>
-      </c>
-      <c r="AA2">
-        <v>12.01</v>
-      </c>
-      <c r="AB2">
-        <v>12.02</v>
-      </c>
-      <c r="AC2">
-        <v>12.08</v>
-      </c>
-      <c r="AD2">
-        <v>12.09</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+        <v>22</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:33">
+      <c r="A3" s="12">
         <v>2452020005</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
+      <c r="B3" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="C3">
         <f>100-COUNTIF(D3:AZ3,"×")*3</f>
         <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+        <v>35</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:33">
+      <c r="A4" s="11">
         <v>2452020012</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>8</v>
+      <c r="B4" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C23" si="0">100-COUNTIF(D4:AZ4,"×")*3</f>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:33">
+      <c r="A5" s="12">
         <v>2452020033</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
+      <c r="B5" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S5" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="U5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="W5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="X5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Z5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+        <v>35</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:33">
+      <c r="A6" s="11">
         <v>2452020048</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
+      <c r="B6" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R6" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y6" s="19" t="s">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="Y6" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="Z6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC6" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:33">
+      <c r="A7" s="12">
         <v>2452020059</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>11</v>
+      <c r="B7" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="C7">
         <f>110-COUNTIF(D7:AZ7,"×")*3</f>
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+        <v>34</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:33">
+      <c r="A8" s="11">
         <v>2452020062</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>12</v>
+      <c r="B8" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:33">
+      <c r="A9" s="12">
         <v>2452020068</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>13</v>
+      <c r="B9" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q9" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+        <v>34</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:33">
+      <c r="A10" s="11">
         <v>2452020071</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
+      <c r="B10" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+        <v>34</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:33">
+      <c r="A11" s="22">
         <v>2452020072</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>15</v>
+      <c r="B11" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="Q11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="T11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="U11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="W11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="X11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="Z11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+        <v>34</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:33">
+      <c r="A12" s="11">
         <v>2452020091</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>16</v>
+      <c r="B12" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:33">
+      <c r="A13" s="12">
         <v>2452020094</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>17</v>
+      <c r="B13" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+        <v>34</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:33">
+      <c r="A14" s="11">
         <v>2452020098</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>18</v>
+      <c r="B14" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:33">
+      <c r="A15" s="12">
         <v>2452020105</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>19</v>
+      <c r="B15" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J15" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+        <v>34</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:33">
+      <c r="A16" s="11">
         <v>2452020117</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>20</v>
+      <c r="B16" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="P16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="T16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="U16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="W16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="X16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y16" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC16" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:33">
+      <c r="A17" s="12">
         <v>2452020132</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>21</v>
+      <c r="B17" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J17" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+        <v>34</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:33">
+      <c r="A18" s="11">
         <v>2452020133</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>22</v>
+      <c r="B18" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J18" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M18" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:33">
+      <c r="A19" s="12">
         <v>2452020143</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>23</v>
+      <c r="B19" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="K19" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P19" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC19" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+        <v>34</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20" s="11">
         <v>2452020164</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>24</v>
+      <c r="B20" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" s="12">
         <v>2452020176</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>25</v>
+      <c r="B21" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC21" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+        <v>34</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" s="11">
         <v>2452020203</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>26</v>
+      <c r="B22" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="K22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="12">
         <v>2452020205</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>27</v>
+      <c r="B23" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N23" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X23" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
+        <v>34</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:33">
+      <c r="A24" s="11">
         <v>2452020236</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>28</v>
+      <c r="B24" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C24">
         <f t="shared" ref="C24:C49" si="1">100-COUNTIF(D24:AZ24,"×")*3</f>
         <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J24" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L24" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB24" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC24" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+        <v>35</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:33">
+      <c r="A25" s="12">
         <v>2452020243</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>29</v>
+      <c r="B25" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="P25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="T25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="U25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="W25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="X25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y25" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC25" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
+        <v>35</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:33">
+      <c r="A26" s="11">
         <v>2452020253</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>30</v>
+      <c r="B26" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="P26" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S26" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T26" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="W26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="X26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y26" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC26" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+        <v>35</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" s="20" customFormat="1" ht="15" spans="1:33">
+      <c r="A27" s="15">
         <v>2452020260</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>31</v>
+      <c r="B27" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="M27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="P27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="T27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="U27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="W27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="X27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y27" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
+        <v>35</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:33">
+      <c r="A28" s="11">
         <v>2452020278</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>32</v>
+      <c r="B28" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="K28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:33">
+      <c r="A29" s="12">
         <v>2452020293</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>33</v>
+      <c r="B29" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="K29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
+        <v>34</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:33">
+      <c r="A30" s="11">
         <v>2452020297</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>34</v>
+      <c r="B30" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="P30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R30" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="T30" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V30" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W30" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X30" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y30" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC30" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
+        <v>35</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:33">
+      <c r="A31" s="12">
         <v>2452020298</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>35</v>
+      <c r="B31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="P31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="T31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="U31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V31" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W31" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X31" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y31" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA31" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC31" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
+        <v>35</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:33">
+      <c r="A32" s="11">
         <v>2452020306</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>36</v>
+      <c r="B32" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I32" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J32" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K32" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L32" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA32" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB32" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC32" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
+        <v>35</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:33">
+      <c r="A33" s="12">
         <v>2452020309</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>37</v>
+      <c r="B33" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="C33">
         <f>110-COUNTIF(D33:AZ33,"×")*3</f>
         <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J33" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K33" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P33" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q33" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R33" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB33" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC33" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
+        <v>34</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:33">
+      <c r="A34" s="11">
         <v>2452020323</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>38</v>
+      <c r="B34" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J34" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K34" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L34" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M34" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N34" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O34" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P34" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q34" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R34" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S34" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T34" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U34" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V34" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W34" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X34" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y34" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z34" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA34" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB34" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC34" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
+        <v>35</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:33">
+      <c r="A35" s="12">
         <v>2452020347</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>39</v>
+      <c r="B35" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J35" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K35" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R35" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X35" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA35" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB35" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC35" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:33">
+      <c r="A36" s="11">
         <v>2452020357</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>40</v>
+      <c r="B36" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="K36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y36" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Z36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC36" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:33">
+      <c r="A37" s="12">
         <v>2452020371</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>41</v>
+      <c r="B37" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J37" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L37" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N37" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U37" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X37" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z37" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB37" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC37" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:33">
+      <c r="A38" s="11">
         <v>2452020381</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>42</v>
+      <c r="B38" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I38" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N38" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O38" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S38" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="U38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="W38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="X38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Z38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC38" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A39" s="10">
+        <v>35</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:33">
+      <c r="A39" s="12">
         <v>2452020390</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>43</v>
+      <c r="B39" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H39" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="P39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R39" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="T39" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V39" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W39" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X39" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Z39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA39" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC39" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
+        <v>35</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:33">
+      <c r="A40" s="11">
         <v>2452020397</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>44</v>
+      <c r="B40" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J40" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K40" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R40" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X40" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA40" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB40" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC40" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A41" s="10">
+        <v>35</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:33">
+      <c r="A41" s="12">
         <v>2452020410</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>45</v>
+      <c r="B41" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I41" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J41" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
+        <v>34</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:33">
+      <c r="A42" s="11">
         <v>2452020421</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>46</v>
+      <c r="B42" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I42" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J42" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K42" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L42" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M42" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N42" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O42" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P42" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q42" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R42" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S42" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T42" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U42" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V42" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W42" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X42" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y42" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Z42" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA42" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB42" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC42" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A43" s="10">
+        <v>35</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:33">
+      <c r="A43" s="12">
         <v>2452020424</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>47</v>
+      <c r="B43" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="K43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L43" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC43" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
+        <v>34</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:33">
+      <c r="A44" s="11">
         <v>2452020454</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>48</v>
+      <c r="B44" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J44" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K44" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L44" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:33">
+      <c r="A45" s="12">
         <v>2452020478</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>49</v>
+      <c r="B45" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="P45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="T45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="U45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="W45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="X45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Z45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC45" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A46" s="9">
+        <v>35</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:33">
+      <c r="A46" s="11">
         <v>2452020484</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>50</v>
+      <c r="B46" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I46" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J46" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K46" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L46" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M46" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N46" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O46" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="P46" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q46" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R46" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S46" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T46" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U46" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V46" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W46" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X46" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y46" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Z46" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA46" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB46" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC46" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A47" s="10">
+        <v>35</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:33">
+      <c r="A47" s="12">
         <v>2452020759</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>51</v>
+      <c r="B47" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="N47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="P47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="S47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="T47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="U47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="V47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="W47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="X47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Z47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AB47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AC47" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A48" s="9">
+        <v>35</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:33">
+      <c r="A48" s="11">
         <v>2452020821</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>52</v>
+      <c r="B48" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="K48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Q48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="R48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="U48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Y48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="Z48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC48" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AD48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.2">
-      <c r="A49" s="10">
+        <v>34</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="1:33">
+      <c r="A49" s="12">
         <v>2452020828</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>53</v>
+      <c r="B49" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J49" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K49" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="L49" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="M49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="O49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="P49" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Q49" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="R49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="S49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="T49" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="U49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="V49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="W49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="X49" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Y49" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="Z49" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="AA49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AB49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AC49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AD49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:64" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" ht="78" customHeight="1" spans="4:64">
       <c r="D50">
         <f>COUNTIF(D3:D49,"×")</f>
         <v>5</v>
@@ -5231,11 +6379,11 @@
       </c>
       <c r="O50">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P50">
         <f t="shared" ref="P50:BL50" si="3">COUNTIF(P3:P49,"×")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q50">
         <f t="shared" si="3"/>
@@ -5271,7 +6419,7 @@
       </c>
       <c r="Y50">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z50">
         <f t="shared" si="3"/>
@@ -5295,15 +6443,15 @@
       </c>
       <c r="AE50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH50">
         <f t="shared" si="3"/>
@@ -5430,17 +6578,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:64" ht="30" x14ac:dyDescent="0.4">
-      <c r="H52" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
+    <row r="52" ht="30" spans="8:15">
+      <c r="H52" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5449,8 +6597,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C$1:C$1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percentile" val="20"/>
@@ -5461,598 +6608,604 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="14">
+    <row r="2" ht="15" spans="1:3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18">
         <v>45958</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="18">
         <v>45986</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>11</v>
+    <row r="3" ht="24.75" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" ht="24" spans="1:3">
+      <c r="A4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" ht="24" spans="1:3">
+      <c r="A5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" ht="24" spans="1:3">
+      <c r="A6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:3">
+      <c r="A7" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:3">
+      <c r="A8" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="24" spans="1:3">
+      <c r="A9" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="24" spans="1:3">
+      <c r="A10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="24" spans="1:3">
+      <c r="A11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="24" spans="1:3">
+      <c r="A12" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="24" spans="1:3">
+      <c r="A13" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" ht="24" spans="1:3">
+      <c r="A14" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" ht="24" spans="1:3">
+      <c r="A15" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" ht="24" spans="1:3">
+      <c r="A16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" ht="24" spans="1:3">
+      <c r="A17" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" ht="24" spans="1:3">
+      <c r="A18" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" ht="24" spans="1:3">
+      <c r="A19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" ht="24" spans="1:3">
+      <c r="A20" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" ht="24" spans="1:3">
+      <c r="A21" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:3">
+      <c r="A22" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:3">
+      <c r="A23" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" ht="24" spans="1:3">
+      <c r="A24" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" ht="24" spans="1:3">
+      <c r="A25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" ht="24" spans="1:3">
+      <c r="A26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" ht="24" spans="1:3">
+      <c r="A27" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:3">
+      <c r="A28" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:3">
+      <c r="A29" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" ht="24" spans="1:3">
+      <c r="A30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" ht="24" spans="1:3">
+      <c r="A31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" ht="24" spans="1:3">
+      <c r="A32" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" ht="24" spans="1:3">
+      <c r="A33" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" ht="24" spans="1:3">
+      <c r="A34" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" ht="24" spans="1:3">
+      <c r="A35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:3">
+      <c r="A36" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="10" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" ht="24" spans="1:3">
+      <c r="A37" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A38" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="10" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" ht="24" spans="1:3">
+      <c r="A38" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" ht="24" spans="1:3">
+      <c r="A39" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" ht="24" spans="1:3">
+      <c r="A40" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" ht="24" spans="1:3">
+      <c r="A41" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A42" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" ht="24" spans="1:3">
+      <c r="A42" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:3">
+      <c r="A43" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A44" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A45" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A46" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A47" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" ht="24" spans="1:3">
+      <c r="A44" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" ht="24" spans="1:3">
+      <c r="A45" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" ht="24" spans="1:3">
+      <c r="A46" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" ht="24" spans="1:3">
+      <c r="A47" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:3">
+      <c r="A48" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
-        <v>53</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="1:3">
+      <c r="A49" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="15" spans="1:12">
       <c r="A2">
         <v>10.14</v>
       </c>
@@ -6060,7 +7213,7 @@
         <v>10.18</v>
       </c>
       <c r="C2">
-        <v>10.210000000000001</v>
+        <v>10.21</v>
       </c>
       <c r="D2">
         <v>10.27</v>
@@ -6086,371 +7239,386 @@
       <c r="K2">
         <v>12.09</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="L2">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:12">
+      <c r="A4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:12">
+      <c r="A5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="I5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:12">
+      <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:11">
+      <c r="A7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:11">
+      <c r="A8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="J8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:11">
+      <c r="A9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="J9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:11">
+      <c r="A10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="3" t="s">
+      <c r="D10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="K10" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:11">
+      <c r="A11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="K11" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:11">
+      <c r="A12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:11">
+      <c r="A13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="4:11">
+      <c r="D14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="4:11">
+      <c r="D15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="4:11">
+      <c r="D16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="4:11">
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="4:11">
+      <c r="D18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="11:11">
+      <c r="K19" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="11:11">
+      <c r="K20" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="11:11">
+      <c r="K21" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="11:11">
+      <c r="K22" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="11:11">
+      <c r="K23" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="11:11">
+      <c r="K24" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="11:11">
+      <c r="K25" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="11:11">
+      <c r="K26" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="11:11">
+      <c r="K27" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="11:11">
+      <c r="K28" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="11:11">
+      <c r="K29" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="11:11">
+      <c r="K30" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="11:11">
+      <c r="K31" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="J8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="J9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="K10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="K11" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K19" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K20" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K21" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K22" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K23" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K24" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K25" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K26" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K27" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K28" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K29" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K30" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K31" s="9" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>